--- a/guitars.xlsx
+++ b/guitars.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,120 +477,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gitara Squier Contemporary Active Jazzmaster</t>
+          <t>Jacek Kiedo jazzmaster unikat gitara elektryczna lutnicza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 350 zł</t>
+          <t>3 499 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jelenia Góra, Zabobrze</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-squier-contemporary-active-jazzmaster-CID751-IDUyxLV.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/jacek-kiedo-jazzmaster-unikat-gitara-elektryczna-lutnicza-CID751-IDUVSez.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/9pliuib0svyh1-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/hohnxjyyxv703-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fender Pure Vintage '65 Jazzmaster pickup set AVII TVL</t>
+          <t>Gitara Squier Contemporary Active Jazzmaster</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>550 zł</t>
+          <t>1 350 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Jelenia Góra, Zabobrze</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-pure-vintage-65-jazzmaster-pickup-set-avii-tvl-CID751-IDUR1Vn.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-squier-contemporary-active-jazzmaster-CID751-IDUyxLV.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/p1dme134jp1x1-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/9pliuib0svyh1-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gitara Gitary miniatura miniaturki stratocaster telecaster jazzmaster</t>
+          <t>Fender Pure Vintage '65 Jazzmaster pickup set AVII TVL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>650 zł</t>
+          <t>550 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Głogów</t>
+          <t>Wrocław, Stare Miasto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-gitary-miniatura-miniaturki-stratocaster-telecaster-jazzmaster-CID751-IDPSYza.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-pure-vintage-65-jazzmaster-pickup-set-avii-tvl-CID751-IDUR1Vn.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/59wkog9vbqxe-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/p1dme134jp1x1-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jacek Kiedo jazzmaster unikat gitara elektryczna lutnicza</t>
+          <t>Gitara Gitary miniatura miniaturki stratocaster telecaster jazzmaster</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 499 zł</t>
+          <t>650 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Głogów</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11 czerwca 2023</t>
+          <t>16 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/jacek-kiedo-jazzmaster-unikat-gitara-elektryczna-lutnicza-CID751-IDUVSez.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-gitary-miniatura-miniaturki-stratocaster-telecaster-jazzmaster-CID751-IDPSYza.html", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/hohnxjyyxv703-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/59wkog9vbqxe-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
@@ -627,60 +627,60 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zestaw Fender Special Design Hot Single Coil Jazzmaster Pickups</t>
+          <t>Fender Squier Jazzmaster Vibe Classic 2019 i HardCase</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>1 900 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Warszawa, Praga-Południe</t>
+          <t>Warszawa, Mokotów</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>Odświeżono dnia 28 czerwca 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/zestaw-fender-special-design-hot-single-coil-jazzmaster-pickups-CID751-IDTRQx2.html?reason=extended_search_extended_delivery", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squier-jazzmaster-vibe-classic-2019-i-hardcase-CID751-IDUv8Ko.html?reason=extended_search_extended_delivery", "Link")</f>
         <v/>
       </c>
       <c r="F7">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/uca3rlzchuz3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/2m66cjw09dy02-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fender Squier Jazzmaster Vibe Classic 2019 i HardCase</t>
+          <t>Zestaw Fender Special Design Hot Single Coil Jazzmaster Pickups</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 900 zł</t>
+          <t>270 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Warszawa, Mokotów</t>
+          <t>Warszawa, Praga-Południe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 26 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squier-jazzmaster-vibe-classic-2019-i-hardcase-CID751-IDUv8Ko.html?reason=extended_search_extended_delivery", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/zestaw-fender-special-design-hot-single-coil-jazzmaster-pickups-CID751-IDTRQx2.html?reason=extended_search_extended_delivery", "Link")</f>
         <v/>
       </c>
       <c r="F8">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/2m66cjw09dy02-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/uca3rlzchuz3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
@@ -771,36 +771,6 @@
       </c>
       <c r="F11">
         <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/l4vxmp5eq2y03-PL/image;s=200x0;q=50", "Photo")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Graph Tech PQ 8108 TUSQ  Fender tele  jazzmaster jaguar</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>250 zł</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Warszawa, Śródmieście</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29 maja 2023</t>
-        </is>
-      </c>
-      <c r="E12">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/graph-tech-pq-8108-tusq-fender-tele-jazzmaster-jaguar-CID751-IDTlXBG.html?reason=extended_search_extended_delivery", "Link")</f>
-        <v/>
-      </c>
-      <c r="F12">
-        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
         <v/>
       </c>
     </row>
@@ -858,176 +828,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOSS DS-2 turbo distortion efekt gitarowy</t>
+          <t>Pedalboard plus efekty gitarowe plus wzmacniacz Marshall</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>429 zł</t>
+          <t>3 500 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kutno</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-turbo-distortion-efekt-gitarowy-CID751-IDRzVSy.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedalboard-plus-efekty-gitarowe-plus-wzmacniacz-marshall-CID751-IDWdVQM.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/qcyh1tfk7kp7-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/4b089iy95f4d3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOSS DS-2 TURBO Distortion</t>
+          <t>Ibanez mini chorus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>380 zł</t>
+          <t>250 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Truskolasy</t>
+          <t>Warszawa, Śródmieście</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-turbo-distortion-CID751-IDUvYCi.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-mini-chorus-CID751-IDWerfp.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/al3ku8ve5dh83-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/yy8ulfx8w9vu2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOSS GT-100 Multieffect processor looper multiefekt delay</t>
+          <t>Pedalboard z 12 efektami i 2 zasilaczami</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>980 zł</t>
+          <t>4 450 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Warszawa, Bielany</t>
+          <t>Sosnowiec</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-multieffect-processor-looper-multiefekt-delay-CID751-IDWavoe.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedalboard-z-12-efektami-i-2-zasilaczami-CID751-IDWehLH.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/8mc7qb09nvfe3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/evqry94t9l1x1-PL/image;r=180;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Efekt gitarowy Boss OS2</t>
+          <t>FILTR POWIETRZA MITSUBISHI, A535 PUR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>97,52 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Mikołów, Centrum</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-os2-CID751-IDUgFLF.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/filtr-powietrza-mitsubishi-a535-pur-ID6FD0Tm.html", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/dta7fo6dmg0s1-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/ba55xkctvuy02-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boss DS-2, efekt gitarowy</t>
+          <t>BOSS DS-2 turbo distortion efekt gitarowy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>429 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Warszawa, Wola</t>
+          <t>Kutno</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-efekt-gitarowy-CID751-IDW9Ie8.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-turbo-distortion-efekt-gitarowy-CID751-IDRzVSy.html", "Link")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/b6aqb6ne4bqf1-PL/image;r=270;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/qcyh1tfk7kp7-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lampa LED Halogen 360W Reflektor CANTER ISUZU KIA</t>
+          <t>BOSS DS-2 TURBO Distortion</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>149 zł</t>
+          <t>380 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rawa Mazowiecka</t>
+          <t>Truskolasy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/lampa-led-halogen-360w-reflektor-canter-isuzu-kia-ID6F6qoc.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-turbo-distortion-CID751-IDUvYCi.html", "Link")</f>
         <v/>
       </c>
       <c r="F7">
@@ -1038,26 +1008,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sprzedam Multiefekt gitarowy BOSS-GT6 + Torba</t>
+          <t>BOSS GT-100 Multieffect processor looper multiefekt delay</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>590 zł</t>
+          <t>899 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Łódź, Polesie</t>
+          <t>Warszawa, Bielany</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-multiefekt-gitarowy-boss-gt6-torba-CID751-IDU1uZX.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-multieffect-processor-looper-multiefekt-delay-CID751-IDWavoe.html", "Link")</f>
         <v/>
       </c>
       <c r="F8">
@@ -1068,26 +1038,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ns eccentric 2019 (dh,ht,enduro)</t>
+          <t>Efekt gitarowy Boss OS2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2 300 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dębica</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-eccentric-2019-dh-ht-enduro-CID767-IDUs1Xl.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-os2-CID751-IDUgFLF.html", "Link")</f>
         <v/>
       </c>
       <c r="F9">
@@ -1098,26 +1068,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NS Bikes Eccentric Lite 1 Alu 29 Rozmiar S Trail</t>
+          <t>Boss DS-2, efekt gitarowy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3 899 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Warszawa, Białołęka</t>
+          <t>Warszawa, Wola</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-bikes-eccentric-lite-1-alu-29-rozmiar-s-trail-CID767-IDOdXEL.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-efekt-gitarowy-CID751-IDW9Ie8.html", "Link")</f>
         <v/>
       </c>
       <c r="F10">
@@ -1128,26 +1098,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Multiefekt Boss ME80</t>
+          <t>Lampa LED Halogen 360W Reflektor CANTER ISUZU KIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>700 zł</t>
+          <t>149 zł</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Warszawa, Ursynów</t>
+          <t>Rawa Mazowiecka</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me80-CID751-IDW7RL2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/lampa-led-halogen-360w-reflektor-canter-isuzu-kia-ID6F6qoc.html", "Link")</f>
         <v/>
       </c>
       <c r="F11">
@@ -1158,26 +1128,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FILTR OLEJU HENGST H210WN DUCATO JUMPER BOXER</t>
+          <t>Sprzedam Multiefekt gitarowy BOSS-GT6 + Torba</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30 zł</t>
+          <t>590 zł</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kopanica</t>
+          <t>Łódź, Polesie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/filtr-oleju-hengst-h210wn-ducato-jumper-boxer-ID6FBEer.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-multiefekt-gitarowy-boss-gt6-torba-CID751-IDU1uZX.html", "Link")</f>
         <v/>
       </c>
       <c r="F12">
@@ -1188,26 +1158,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Multiefekt Boss ME-70</t>
+          <t>Ns eccentric 2019 (dh,ht,enduro)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>730 zł</t>
+          <t>2 300 zł</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Reguły</t>
+          <t>Dębica</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me-70-CID751-IDUTghP.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-eccentric-2019-dh-ht-enduro-CID767-IDUs1Xl.html", "Link")</f>
         <v/>
       </c>
       <c r="F13">
@@ -1218,26 +1188,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Roland GP-8 Japan (Boss OD-2 DS-1 PH-1R DD-2 RCE-10 CS-1 AW-2)</t>
+          <t>NS Bikes Eccentric Lite 1 Alu 29 Rozmiar S Trail</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>800 zł</t>
+          <t>3 899 zł</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Gdańsk, Wrzeszcz</t>
+          <t>Warszawa, Białołęka</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/roland-gp-8-japan-boss-od-2-ds-1-ph-1r-dd-2-rce-10-cs-1-aw-2-CID751-IDW6GQE.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-bikes-eccentric-lite-1-alu-29-rozmiar-s-trail-CID767-IDOdXEL.html", "Link")</f>
         <v/>
       </c>
       <c r="F14">
@@ -1248,26 +1218,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Boss ds2 distortion</t>
+          <t>Multiefekt Boss ME80</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>280 zł</t>
+          <t>700 zł</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wrocław, Psie Pole</t>
+          <t>Warszawa, Ursynów</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds2-distortion-CID751-IDW50HQ.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me80-CID751-IDW7RL2.html", "Link")</f>
         <v/>
       </c>
       <c r="F15">
@@ -1278,26 +1248,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rower Marin Bobcat Trail 4 29 cali XL</t>
+          <t>FILTR OLEJU HENGST H210WN DUCATO JUMPER BOXER</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2 500 zł</t>
+          <t>30 zł</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Skołyszyn</t>
+          <t>Kopanica</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/rower-marin-bobcat-trail-4-29-cali-xl-CID767-IDUveaK.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/filtr-oleju-hengst-h210wn-ducato-jumper-boxer-ID6FBEer.html", "Link")</f>
         <v/>
       </c>
       <c r="F16">
@@ -1308,26 +1278,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dartmoor primal 2020</t>
+          <t>Multiefekt Boss ME-70</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4 400 zł</t>
+          <t>730 zł</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Biłgoraj</t>
+          <t>Reguły</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/dartmoor-primal-2020-CID767-IDPkQCT.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me-70-CID751-IDUTghP.html", "Link")</f>
         <v/>
       </c>
       <c r="F17">
@@ -1338,26 +1308,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BOSS GT-100 v2 multiefekt zasilacz super stan WYSYŁKA</t>
+          <t>Boss ds2 distortion</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1 250 zł</t>
+          <t>250 zł</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ostrołęka</t>
+          <t>Wrocław, Psie Pole</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>20 czerwca 2023</t>
         </is>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-v2-multiefekt-zasilacz-super-stan-wysylka-CID751-IDW3h1R.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds2-distortion-CID751-IDW50HQ.html", "Link")</f>
         <v/>
       </c>
       <c r="F18">
@@ -1368,26 +1338,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Multiefekt gitarowy Boss ME70 + zasilacz</t>
+          <t>Rower Marin Bobcat Trail 4 29 cali XL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>850 zł</t>
+          <t>2 500 zł</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jastrzębie-Zdrój</t>
+          <t>Skołyszyn</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-gitarowy-boss-me70-zasilacz-CID751-IDTFz47.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/rower-marin-bobcat-trail-4-29-cali-xl-CID767-IDUveaK.html", "Link")</f>
         <v/>
       </c>
       <c r="F19">
@@ -1398,26 +1368,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kross Dust 2.0 S 2018 (Aion 150mm, SRAM NX)</t>
+          <t>dartmoor primal 2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3 300 zł</t>
+          <t>4 400 zł</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Toruń</t>
+          <t>Biłgoraj</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/kross-dust-2-0-s-2018-aion-150mm-sram-nx-CID767-IDU6kIF.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/dartmoor-primal-2020-CID767-IDPkQCT.html", "Link")</f>
         <v/>
       </c>
       <c r="F20">
@@ -1428,26 +1398,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>gra lego star wars the complete saga nintendo wii</t>
+          <t>BOSS GT-100 v2 multiefekt zasilacz super stan WYSYŁKA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24,99 zł</t>
+          <t>1 250 zł</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bytom</t>
+          <t>Ostrołęka</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gra-lego-star-wars-the-complete-saga-nintendo-wii-CID99-IDUwHG1.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-v2-multiefekt-zasilacz-super-stan-wysylka-CID751-IDW3h1R.html", "Link")</f>
         <v/>
       </c>
       <c r="F21">
@@ -1458,26 +1428,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Multi efekt gitarowy Boss GT-100</t>
+          <t>Multiefekt gitarowy Boss ME70 + zasilacz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1 700 zł</t>
+          <t>850 zł</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Jastrzębie-Zdrój</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09 czerwca 2023</t>
+          <t>16 czerwca 2023</t>
         </is>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multi-efekt-gitarowy-boss-gt-100-CID751-IDQx0iO.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-gitarowy-boss-me70-zasilacz-CID751-IDTFz47.html", "Link")</f>
         <v/>
       </c>
       <c r="F22">
@@ -1488,26 +1458,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Boss GT-3 multiefekt efekt gitarowy wah distortion COSM stan bdb</t>
+          <t>Kross Dust 2.0 S 2018 (Aion 150mm, SRAM NX)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>888 zł</t>
+          <t>3 300 zł</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kraków, Zwierzyniec</t>
+          <t>Toruń</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>07 czerwca 2023</t>
+          <t>15 czerwca 2023</t>
         </is>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-3-multiefekt-efekt-gitarowy-wah-distortion-cosm-stan-bdb-CID751-IDPnqZw.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/kross-dust-2-0-s-2018-aion-150mm-sram-nx-CID767-IDU6kIF.html", "Link")</f>
         <v/>
       </c>
       <c r="F23">
@@ -1518,26 +1488,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12 x worki do odkurzacza  Karcher VC2 2.863-236.0</t>
+          <t>gra lego star wars the complete saga nintendo wii</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30 zł</t>
+          <t>24,99 zł</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Paczkowo</t>
+          <t>Bytom</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>07 czerwca 2023</t>
+          <t>10 czerwca 2023</t>
         </is>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/12-x-worki-do-odkurzacza-karcher-vc2-2-863-236-0-CID99-IDPd5v2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gra-lego-star-wars-the-complete-saga-nintendo-wii-CID99-IDUwHG1.html", "Link")</f>
         <v/>
       </c>
       <c r="F24">
@@ -1548,26 +1518,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BOSS DS-2 + KOD NG-12 + HB Power Plant Junior</t>
+          <t>Multi efekt gitarowy Boss GT-100</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>420 zł</t>
+          <t>1 700 zł</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Trzebinia</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>06 czerwca 2023</t>
+          <t>09 czerwca 2023</t>
         </is>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-kod-ng-12-hb-power-plant-junior-CID99-IDUreCR.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multi-efekt-gitarowy-boss-gt-100-CID751-IDQx0iO.html", "Link")</f>
         <v/>
       </c>
       <c r="F25">
@@ -1578,26 +1548,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BOSS GT-6 Multiprocesor-gitara elektryczna z wah-wah+zasilacz+usterka</t>
+          <t>Boss GT-3 multiefekt efekt gitarowy wah distortion COSM stan bdb</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>450 zł</t>
+          <t>888 zł</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gubin</t>
+          <t>Kraków, Zwierzyniec</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>05 czerwca 2023</t>
+          <t>07 czerwca 2023</t>
         </is>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-6-multiprocesor-gitara-elektryczna-z-wah-wah-zasilacz-usterka-CID751-IDSziCr.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-3-multiefekt-efekt-gitarowy-wah-distortion-cosm-stan-bdb-CID751-IDPnqZw.html", "Link")</f>
         <v/>
       </c>
       <c r="F26">
@@ -1608,26 +1578,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Multiefekt podłogowy-gitara elektryczna BOSS ME-20 z pedał wah-wah.TOP</t>
+          <t>12 x worki do odkurzacza  Karcher VC2 2.863-236.0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>495 zł</t>
+          <t>30 zł</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gubin</t>
+          <t>Paczkowo</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>05 czerwca 2023</t>
+          <t>07 czerwca 2023</t>
         </is>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-podlogowy-gitara-elektryczna-boss-me-20-z-pedal-wah-wah-top-CID751-IDSzgCj.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/12-x-worki-do-odkurzacza-karcher-vc2-2-863-236-0-CID99-IDPd5v2.html", "Link")</f>
         <v/>
       </c>
       <c r="F27">
@@ -1638,26 +1608,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Boss DS-2 Turbo Distortion</t>
+          <t>BOSS DS-2 + KOD NG-12 + HB Power Plant Junior</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>350 zł</t>
+          <t>420 zł</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nysa</t>
+          <t>Trzebinia</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>03 czerwca 2023</t>
+          <t>06 czerwca 2023</t>
         </is>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-turbo-distortion-CID751-IDUoJCX.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-kod-ng-12-hb-power-plant-junior-CID99-IDUreCR.html", "Link")</f>
         <v/>
       </c>
       <c r="F28">
@@ -1668,26 +1638,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BOSS GT-6 Multiefekt Gitarowy</t>
+          <t>BOSS GT-6 Multiprocesor-gitara elektryczna z wah-wah+zasilacz+usterka</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>650 zł</t>
+          <t>450 zł</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Białystok, Centrum</t>
+          <t>Gubin</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>01 czerwca 2023</t>
+          <t>05 czerwca 2023</t>
         </is>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-6-multiefekt-gitarowy-CID751-IDSXhhA.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-6-multiprocesor-gitara-elektryczna-z-wah-wah-zasilacz-usterka-CID751-IDSziCr.html", "Link")</f>
         <v/>
       </c>
       <c r="F29">
@@ -1698,26 +1668,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POD HD PRO i inne kostki efektowe</t>
+          <t>Multiefekt podłogowy-gitara elektryczna BOSS ME-20 z pedał wah-wah.TOP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>900 zł</t>
+          <t>495 zł</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Słomniki</t>
+          <t>Gubin</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31 maja 2023</t>
+          <t>05 czerwca 2023</t>
         </is>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pod-hd-pro-i-inne-kostki-efektowe-CID751-IDUNGJ6.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-podlogowy-gitara-elektryczna-boss-me-20-z-pedal-wah-wah-top-CID751-IDSzgCj.html", "Link")</f>
         <v/>
       </c>
       <c r="F30">
@@ -1728,26 +1698,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rower MTB Marin Bobcat Trail 4 29" M Hardtail</t>
+          <t>Boss DS-2 Turbo Distortion</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2 799 zł</t>
+          <t>350 zł</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rawicz, Sarnowa</t>
+          <t>Nysa</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>31 maja 2023</t>
+          <t>03 czerwca 2023</t>
         </is>
       </c>
       <c r="E31">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/rower-mtb-marin-bobcat-trail-4-29-m-hardtail-CID767-IDQHyHY.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-2-turbo-distortion-CID751-IDUoJCX.html", "Link")</f>
         <v/>
       </c>
       <c r="F31">
@@ -1758,26 +1728,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Rower MTB Hardtail Marin Bobcat Trail 4 M/L 29"</t>
+          <t>BOSS GT-6 Multiefekt Gitarowy</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3 099 zł</t>
+          <t>650 zł</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rawicz, Sarnowa</t>
+          <t>Białystok, Centrum</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>30 maja 2023</t>
+          <t>01 czerwca 2023</t>
         </is>
       </c>
       <c r="E32">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/rower-mtb-hardtail-marin-bobcat-trail-4-m-l-29-CID767-IDRdMXX.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-6-multiefekt-gitarowy-CID751-IDSXhhA.html", "Link")</f>
         <v/>
       </c>
       <c r="F32">
@@ -1796,7 +1766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,77 +1809,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hofner 496 Jumbo 70s gitara akustyczna vintage zamienię</t>
+          <t>Gitara DeArmond M-65C z modyfikacjami sprzedam!!</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3 999 zł</t>
+          <t>960 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Wrocław, Śródmieście</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/hofner-496-jumbo-70s-gitara-akustyczna-vintage-zamienie-CID751-IDUWBXC.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-dearmond-m-65c-z-modyfikacjami-sprzedam-CID751-IDxvPC9.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/69utl5j84bt03-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/gmr032yjhszh-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gitara DeArmond M-65C z modyfikacjami sprzedam!!</t>
+          <t>Fender Jaguar Bass Made in Japan aktiv Cobalt Blue jak nowy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960 zł</t>
+          <t>6 400 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wrocław, Śródmieście</t>
+          <t>Lwówek Śląski</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>13 czerwca 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-dearmond-m-65c-z-modyfikacjami-sprzedam-CID751-IDxvPC9.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-jaguar-bass-made-in-japan-aktiv-cobalt-blue-jak-nowy-CID751-IDTBYWG.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/gmr032yjhszh-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/khzyeapy5r8d2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fender Jaguar Bass Made in Japan aktiv Cobalt Blue jak nowy</t>
+          <t>EW Ministry Of Rock 1 i 2 - VSti</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6 400 zł</t>
+          <t>700 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lwówek Śląski</t>
+          <t>Mieroszów</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1918,41 +1888,41 @@
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-jaguar-bass-made-in-japan-aktiv-cobalt-blue-jak-nowy-CID751-IDTBYWG.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ew-ministry-of-rock-1-i-2-vsti-CID751-IDOLyHT.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/khzyeapy5r8d2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/z6vb4j4qddrb3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EW Ministry Of Rock 1 i 2 - VSti</t>
+          <t>PICKUP Jazz Bass bridge / Squier Vintage Modified Jaguar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>700 zł</t>
+          <t>95 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mieroszów</t>
+          <t>Gdynia, Wielki Kack</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ew-ministry-of-rock-1-i-2-vsti-CID751-IDOLyHT.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pickup-jazz-bass-bridge-squier-vintage-modified-jaguar-CID751-IDUx7bO.html?reason=extended_search_extended_delivery", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/z6vb4j4qddrb3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/waehcdokbuu12-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
@@ -2043,66 +2013,6 @@
       </c>
       <c r="F8">
         <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/pddb2hd0z43o3-PL/image;s=200x0;q=50", "Photo")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PICKUP Jazz Bass bridge / Squier Vintage Modified Jaguar</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>95 zł</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Gdynia, Wielki Kack</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13 czerwca 2023</t>
-        </is>
-      </c>
-      <c r="E9">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pickup-jazz-bass-bridge-squier-vintage-modified-jaguar-CID751-IDUx7bO.html?reason=extended_search_extended_delivery", "Link")</f>
-        <v/>
-      </c>
-      <c r="F9">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/waehcdokbuu12-PL/image;s=200x0;q=50", "Photo")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Graph Tech PQ 8108 TUSQ  Fender tele  jazzmaster jaguar</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>250 zł</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Warszawa, Śródmieście</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>29 maja 2023</t>
-        </is>
-      </c>
-      <c r="E10">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/graph-tech-pq-8108-tusq-fender-tele-jazzmaster-jaguar-CID751-IDTlXBG.html?reason=extended_search_extended_delivery", "Link")</f>
-        <v/>
-      </c>
-      <c r="F10">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/0vaqkrb2eeav3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
@@ -2160,176 +2070,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESP Edwards E-SA-138/180LTC semi hollow (es335/355) Japan</t>
+          <t>Zestaw HARLEY BENTON ST-62MN BK Blackstar ID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5 500 zł</t>
+          <t>950 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trzebnica</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/esp-edwards-e-sa-138-180ltc-semi-hollow-es335-355-japan-CID751-IDUrzuU.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/zestaw-harley-benton-st-62mn-bk-blackstar-id-CID751-IDW7i5n.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/1tfbwr2c8a9b3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/g96xjomzlmji2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zestaw HARLEY BENTON ST-62MN BK Blackstar ID</t>
+          <t>ESP Edwards E-SA-138/180LTC semi hollow (es335/355) Japan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>950 zł</t>
+          <t>5 500 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Trzebnica</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28 czerwiec 2023</t>
+          <t>Odświeżono dnia 29 czerwca 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/zestaw-harley-benton-st-62mn-bk-blackstar-id-CID751-IDW7i5n.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/esp-edwards-e-sa-138-180ltc-semi-hollow-es335-355-japan-CID751-IDUrzuU.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/g96xjomzlmji2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/1tfbwr2c8a9b3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hofner 496 Jumbo 70s gitara akustyczna vintage zamienię</t>
+          <t>Gitara Fender Fenix by young Chang stratocaster</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 999 zł</t>
+          <t>2 299 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Lwówek Śląski</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/hofner-496-jumbo-70s-gitara-akustyczna-vintage-zamienie-CID751-IDUWBXC.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-fender-fenix-by-young-chang-stratocaster-CID751-IDQxw7s.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/69utl5j84bt03-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/sewyl36q8w3r1-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gitara Chevy ST-style Custom Stratocaster lata 90te !!! Cheri</t>
+          <t>Gitara Harley Benton ST 62 DLX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 950 zł</t>
+          <t>800 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lubin</t>
+          <t>Nowa Sól</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-chevy-st-style-custom-stratocaster-lata-90te-cheri-CID751-IDWb1xh.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-harley-benton-st-62-dlx-CID751-IDQIXc0.html", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/pih1neyqa43r3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/xylt3vd8mk913-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gitara, wzmacniacz Teisco</t>
+          <t>Japońska gitara Teisco Hertiecaster 1960 sunburst  vintage Japan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>900 zł</t>
+          <t>890 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spalona</t>
+          <t>Wiązów</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-wzmacniacz-teisco-CID751-IDScX0F.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/japonska-gitara-teisco-hertiecaster-1960-sunburst-vintage-japan-CID751-IDRQKRR.html", "Link")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/4jvkfi4kc0dv2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/tjqruqnqboku3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SX Stratocaster Scalloped</t>
+          <t>Gitara Elektryczna - Fender Stratocaster</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>900 zł</t>
+          <t>2 700 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/sx-stratocaster-scalloped-CID751-IDUM3dv.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-fender-stratocaster-CID751-IDTRPDA.html", "Link")</f>
         <v/>
       </c>
       <c r="F7">
@@ -2340,26 +2250,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gitara elektryczna Cheri Stratocaster</t>
+          <t>Gitara Chevy ST-style Custom Stratocaster lata 90te !!! Cheri</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 000 zł</t>
+          <t>1 950 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Lubin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-cheri-stratocaster-CID751-IDWadsO.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-chevy-st-style-custom-stratocaster-lata-90te-cheri-CID751-IDWb1xh.html", "Link")</f>
         <v/>
       </c>
       <c r="F8">
@@ -2370,26 +2280,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gitara elektryczna stratocaster, kopia Fender</t>
+          <t>Gitara, wzmacniacz Teisco</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>680 zł</t>
+          <t>900 zł</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rawicz, Osiedle 350 Lecia Rawicza</t>
+          <t>Spalona</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-stratocaster-kopia-fender-CID751-IDW9oGD.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-wzmacniacz-teisco-CID751-IDScX0F.html", "Link")</f>
         <v/>
       </c>
       <c r="F9">
@@ -2400,26 +2310,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fender Jimi Hendrix Stratocaster</t>
+          <t>SX Stratocaster Scalloped</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3 800 zł</t>
+          <t>900 zł</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Wrocław, Stare Miasto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-jimi-hendrix-stratocaster-CID751-IDW9kln.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sx-stratocaster-scalloped-CID751-IDUM3dv.html", "Link")</f>
         <v/>
       </c>
       <c r="F10">
@@ -2430,26 +2340,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gitara elektryczna Mustang typ stratocaster</t>
+          <t>Gitara elektryczna Cheri Stratocaster</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>750 zł</t>
+          <t>1 000 zł</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-mustang-typ-stratocaster-CID751-IDW9gb2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-cheri-stratocaster-CID751-IDWadsO.html", "Link")</f>
         <v/>
       </c>
       <c r="F11">
@@ -2460,26 +2370,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fender American Standard Stratocaster edycja "50th anniversary" 1996</t>
+          <t>Gitara elektryczna stratocaster, kopia Fender</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6 100 zł</t>
+          <t>680 zł</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Rawicz, Osiedle 350 Lecia Rawicza</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-standard-stratocaster-edycja-50th-anniversary-1996-CID751-IDUINY0.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-stratocaster-kopia-fender-CID751-IDW9oGD.html", "Link")</f>
         <v/>
       </c>
       <c r="F12">
@@ -2490,26 +2400,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gitara elektryczna Richwood typu Stratocaster</t>
+          <t>Fender Jimi Hendrix Stratocaster</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1 300 zł</t>
+          <t>3 800 zł</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-richwood-typu-stratocaster-CID751-IDUfMi9.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-jimi-hendrix-stratocaster-CID751-IDW9kln.html", "Link")</f>
         <v/>
       </c>
       <c r="F13">
@@ -2520,26 +2430,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Przetwornik Pickup Duncan Designed Bridge</t>
+          <t>Gitara elektryczna Mustang typ stratocaster</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>95 zł</t>
+          <t>750 zł</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/przetwornik-pickup-duncan-designed-bridge-CID751-IDTg8My.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-mustang-typ-stratocaster-CID751-IDW9gb2.html", "Link")</f>
         <v/>
       </c>
       <c r="F14">
@@ -2550,26 +2460,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fender Squier Classic Vibe Stratocaster gitara elektryczna</t>
+          <t>Fender American Standard Stratocaster edycja "50th anniversary" 1996</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1 350 zł</t>
+          <t>6 100 zł</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squier-classic-vibe-stratocaster-gitara-elektryczna-CID751-IDUQU4e.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-standard-stratocaster-edycja-50th-anniversary-1996-CID751-IDUINY0.html", "Link")</f>
         <v/>
       </c>
       <c r="F15">
@@ -2580,26 +2490,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gitara elektryczna Marlin by Hohner lata 90 -te , stratocaster</t>
+          <t>Gitara elektryczna Richwood typu Stratocaster</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>930 zł</t>
+          <t>1 300 zł</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rawicz, Osiedle Sienkiewicza</t>
+          <t>Wrocław, Stare Miasto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-marlin-by-hohner-lata-90-te-stratocaster-CID751-IDFk7CH.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-richwood-typu-stratocaster-CID751-IDUfMi9.html", "Link")</f>
         <v/>
       </c>
       <c r="F16">
@@ -2610,26 +2520,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fender Classic Player '60s Stratocaster - refinish, stalowe progi</t>
+          <t>Przetwornik Pickup Duncan Designed Bridge</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5 000 zł</t>
+          <t>95 zł</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Wrocław, Stare Miasto</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-classic-player-60s-stratocaster-refinish-stalowe-progi-CID751-IDSOWjc.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/przetwornik-pickup-duncan-designed-bridge-CID751-IDTg8My.html", "Link")</f>
         <v/>
       </c>
       <c r="F17">
@@ -2640,26 +2550,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gruby 4cm wodoodporny premium gigbag pokrowiec gitarowy</t>
+          <t>Fender Squier Classic Vibe Stratocaster gitara elektryczna</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>1 350 zł</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wrocław, Śródmieście</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gruby-4cm-wodoodporny-premium-gigbag-pokrowiec-gitarowy-CID751-IDSna25.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squier-classic-vibe-stratocaster-gitara-elektryczna-CID751-IDUQU4e.html", "Link")</f>
         <v/>
       </c>
       <c r="F18">
@@ -2670,26 +2580,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fender stratocaster Custom Shop Artisan</t>
+          <t>Gitara elektryczna Marlin by Hohner lata 90 -te , stratocaster</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16 900 zł</t>
+          <t>930 zł</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Rawicz, Osiedle Sienkiewicza</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-custom-shop-artisan-CID751-IDSdk9M.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-marlin-by-hohner-lata-90-te-stratocaster-CID751-IDFk7CH.html", "Link")</f>
         <v/>
       </c>
       <c r="F19">
@@ -2700,26 +2610,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gitara lutnicza Fender stratocaster style + ampli Laney</t>
+          <t>Fender Classic Player '60s Stratocaster - refinish, stalowe progi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>750 zł</t>
+          <t>5 000 zł</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wrocław, Psie Pole</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-lutnicza-fender-stratocaster-style-ampli-laney-CID751-IDTgEKA.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-classic-player-60s-stratocaster-refinish-stalowe-progi-CID751-IDSOWjc.html", "Link")</f>
         <v/>
       </c>
       <c r="F20">
@@ -2730,26 +2640,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fender Squier Standard Stratocaster</t>
+          <t>Gruby 4cm wodoodporny premium gigbag pokrowiec gitarowy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 000 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wrocław, Psie Pole</t>
+          <t>Wrocław, Śródmieście</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squier-standard-stratocaster-CID751-IDW50pH.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gruby-4cm-wodoodporny-premium-gigbag-pokrowiec-gitarowy-CID751-IDSna25.html", "Link")</f>
         <v/>
       </c>
       <c r="F21">
@@ -2760,26 +2670,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fender American Performer Stratocaster RW Honey Burst - Okazja</t>
+          <t>Fender stratocaster Custom Shop Artisan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4 999 zł</t>
+          <t>16 900 zł</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gromadka</t>
+          <t>Wrocław, Stare Miasto</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20 czerwca 2023</t>
+          <t>21 czerwca 2023</t>
         </is>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-performer-stratocaster-rw-honey-burst-okazja-CID751-IDUaO1E.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-custom-shop-artisan-CID751-IDSdk9M.html", "Link")</f>
         <v/>
       </c>
       <c r="F22">
@@ -2790,17 +2700,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gitara Harley Benton ST 62 DLX</t>
+          <t>Fender Squier Standard Stratocaster</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>800 zł</t>
+          <t>950 zł</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nowa Sól</t>
+          <t>Wrocław, Psie Pole</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2809,7 +2719,7 @@
         </is>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-harley-benton-st-62-dlx-CID751-IDQIXc0.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squier-standard-stratocaster-CID751-IDW50pH.html", "Link")</f>
         <v/>
       </c>
       <c r="F23">
@@ -2820,26 +2730,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fender stratocaster '54 reissue 2 tone sunburst Japan 2013, noisless</t>
+          <t>Fender American Performer Stratocaster RW Honey Burst - Okazja</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5 499 zł</t>
+          <t>4 999 zł</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Świdnica</t>
+          <t>Gromadka</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>20 czerwca 2023</t>
         </is>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-54-reissue-2-tone-sunburst-japan-2013-noisless-CID751-IDSHlxG.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-performer-stratocaster-rw-honey-burst-okazja-CID751-IDUaO1E.html", "Link")</f>
         <v/>
       </c>
       <c r="F24">
@@ -2850,17 +2760,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LTD SN1000 super stratocaster Custom</t>
+          <t>Fender stratocaster '54 reissue 2 tone sunburst Japan 2013, noisless</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2 899 zł</t>
+          <t>5 499 zł</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Świdnica</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2869,7 +2779,7 @@
         </is>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ltd-sn1000-super-stratocaster-custom-CID751-IDW4aHz.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-54-reissue-2-tone-sunburst-japan-2013-noisless-CID751-IDSHlxG.html", "Link")</f>
         <v/>
       </c>
       <c r="F25">
@@ -2880,17 +2790,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>gitara elektryczna stratocaster</t>
+          <t>LTD SN1000 super stratocaster Custom</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>2 899 zł</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Środa Śląska</t>
+          <t>Wrocław, Stare Miasto</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2899,7 +2809,7 @@
         </is>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-stratocaster-CID751-IDUPgE7.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ltd-sn1000-super-stratocaster-custom-CID751-IDW4aHz.html", "Link")</f>
         <v/>
       </c>
       <c r="F26">
@@ -2910,17 +2820,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Squier Stratocaster leworęczny</t>
+          <t>gitara elektryczna stratocaster</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1 800 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Środa Śląska</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2929,7 +2839,7 @@
         </is>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/squier-stratocaster-leworeczny-CID751-IDNbXUo.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-stratocaster-CID751-IDUPgE7.html", "Link")</f>
         <v/>
       </c>
       <c r="F27">
@@ -2940,26 +2850,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fender stratocaster deluxe usa z futeralem</t>
+          <t>Squier Stratocaster leworęczny</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6 500 zł</t>
+          <t>1 800 zł</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Perkowo</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-deluxe-usa-z-futeralem-CID751-IDW3DLb.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/squier-stratocaster-leworeczny-CID751-IDNbXUo.html", "Link")</f>
         <v/>
       </c>
       <c r="F28">
@@ -2970,17 +2880,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fender stratocaster MIJ Japan seria E</t>
+          <t>Fender stratocaster deluxe usa z futeralem</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4 649 zł</t>
+          <t>6 500 zł</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lubań</t>
+          <t>Perkowo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2989,7 +2899,7 @@
         </is>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-mij-japan-seria-e-CID751-IDSnYr1.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-deluxe-usa-z-futeralem-CID751-IDW3DLb.html", "Link")</f>
         <v/>
       </c>
       <c r="F29">
@@ -3000,17 +2910,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Klucze stratocaster Telecaster everplay</t>
+          <t>Fender stratocaster MIJ Japan seria E</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>30 zł</t>
+          <t>4 649 zł</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Lubań</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3019,7 +2929,7 @@
         </is>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/klucze-stratocaster-telecaster-everplay-CID751-IDW3by2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-mij-japan-seria-e-CID751-IDSnYr1.html", "Link")</f>
         <v/>
       </c>
       <c r="F30">
@@ -3270,26 +3180,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Stara japońska deska, korpus do gitary elektrycznej Stratocaster</t>
+          <t>Fender Squire Stratocaster Vintage Modified Gitara Elektryczna !!!</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>380 zł</t>
+          <t>1 650 zł</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jędrzychów</t>
+          <t>Wrocław, Śródmieście</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>14 czerwca 2023</t>
         </is>
       </c>
       <c r="E39">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/stara-japonska-deska-korpus-do-gitary-elektrycznej-stratocaster-CID751-IDNAHjB.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squire-stratocaster-vintage-modified-gitara-elektryczna-CID751-IDUZJ7Z.html", "Link")</f>
         <v/>
       </c>
       <c r="F39">
@@ -3300,12 +3210,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fender Squire Stratocaster Vintage Modified Gitara Elektryczna !!!</t>
+          <t>Fedner Squire Stratocaster Affinity Gitara Elektryczna !!!</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1 650 zł</t>
+          <t>1 080 zł</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3319,7 +3229,7 @@
         </is>
       </c>
       <c r="E40">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-squire-stratocaster-vintage-modified-gitara-elektryczna-CID751-IDUZJ7Z.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fedner-squire-stratocaster-affinity-gitara-elektryczna-CID751-IDUZIVd.html", "Link")</f>
         <v/>
       </c>
       <c r="F40">
@@ -3330,17 +3240,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fedner Squire Stratocaster Affinity Gitara Elektryczna !!!</t>
+          <t>Fender Stratocaster Custom Shop 62 Relic LTD Edition Black/Gold Relic</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1 080 zł</t>
+          <t>19 999 zł</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wrocław, Śródmieście</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3349,7 +3259,7 @@
         </is>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fedner-squire-stratocaster-affinity-gitara-elektryczna-CID751-IDUZIVd.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-stratocaster-custom-shop-62-relic-ltd-edition-black-gold-relic-CID751-IDUZywB.html", "Link")</f>
         <v/>
       </c>
       <c r="F41">
@@ -3368,7 +3278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3426,7 +3336,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>Odświeżono dnia 29 czerwca 2023</t>
         </is>
       </c>
       <c r="E2">
@@ -3441,60 +3351,60 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hohner The Prinz Telecaster</t>
+          <t>Set pickupów telecaster</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 999 zł</t>
+          <t>50 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/hohner-the-prinz-telecaster-CID751-IDQokN3.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/set-pickupow-telecaster-CID751-IDWdyRq.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/nyrnrbrrnp7q3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/n7tdn80yhhm4-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gitara Telecaster Sire T7</t>
+          <t>Gitara Elektryczna Harley Benton+ wzmacniacz Blackstar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2 200 zł</t>
+          <t>1 100 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wrocław, Psie Pole</t>
+          <t>Leszno</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-telecaster-sire-t7-CID751-IDSTr8m.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-harley-benton-wzmacniacz-blackstar-CID751-IDWduMi.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/c0tmc2gittkc3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/p1c55w0v673n1-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
@@ -3516,7 +3426,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
@@ -3531,56 +3441,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Telecaster noiseless Roswell TEK-B AlNiCo-5 Stacked TE Humbucker most</t>
+          <t>Hohner The Prinz Telecaster</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>170 zł</t>
+          <t>2 999 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Świdnica</t>
+          <t>Wrocław, Stare Miasto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/telecaster-noiseless-roswell-tek-b-alnico-5-stacked-te-humbucker-most-CID751-IDRfMPr.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/hohner-the-prinz-telecaster-CID751-IDQokN3.html", "Link")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/zows2za85vwm3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/nyrnrbrrnp7q3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fender American Professional Telecaster Deluxe - Sonic Gray</t>
+          <t>Gitara Telecaster Sire T7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6 350 zł</t>
+          <t>2 200 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Wrocław, Psie Pole</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-professional-telecaster-deluxe-sonic-gray-CID751-IDTg7wC.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-telecaster-sire-t7-CID751-IDSTr8m.html", "Link")</f>
         <v/>
       </c>
       <c r="F7">
@@ -3591,26 +3501,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Partcaster Telecaster</t>
+          <t>Telecaster noiseless Roswell TEK-B AlNiCo-5 Stacked TE Humbucker most</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 200 zł</t>
+          <t>170 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Świdnica</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/partcaster-telecaster-CID751-IDUH6Mc.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/telecaster-noiseless-roswell-tek-b-alnico-5-stacked-te-humbucker-most-CID751-IDRfMPr.html", "Link")</f>
         <v/>
       </c>
       <c r="F8">
@@ -3621,17 +3531,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ibanez Talman 1994r- Telecaster Fujigen Japan</t>
+          <t>Fender American Professional Telecaster Deluxe - Sonic Gray</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5 300 zł</t>
+          <t>6 350 zł</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3640,7 +3550,7 @@
         </is>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-talman-1994r-telecaster-fujigen-japan-CID751-IDT61ze.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-professional-telecaster-deluxe-sonic-gray-CID751-IDTg7wC.html", "Link")</f>
         <v/>
       </c>
       <c r="F9">
@@ -3651,12 +3561,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NOWE Alnico V fleor przetworniki pickup gitara elektryczna Telecaster</t>
+          <t>Partcaster Telecaster</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110 zł</t>
+          <t>1 200 zł</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3670,7 +3580,7 @@
         </is>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/nowe-alnico-v-fleor-przetworniki-pickup-gitara-elektryczna-telecaster-CID751-IDW769P.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/partcaster-telecaster-CID751-IDUH6Mc.html", "Link")</f>
         <v/>
       </c>
       <c r="F10">
@@ -3681,17 +3591,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NOWY Mostek do gitary Telecaster</t>
+          <t>Ibanez Talman 1994r- Telecaster Fujigen Japan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>40 zł</t>
+          <t>5 300 zł</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3700,7 +3610,7 @@
         </is>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/nowy-mostek-do-gitary-telecaster-CID751-IDW74Zc.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-talman-1994r-telecaster-fujigen-japan-CID751-IDT61ze.html", "Link")</f>
         <v/>
       </c>
       <c r="F11">
@@ -3711,17 +3621,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gruby 4cm wodoodporny premium gigbag pokrowiec gitarowy</t>
+          <t>NOWE Alnico V fleor przetworniki pickup gitara elektryczna Telecaster</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>110 zł</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wrocław, Śródmieście</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3730,7 +3640,7 @@
         </is>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gruby-4cm-wodoodporny-premium-gigbag-pokrowiec-gitarowy-CID751-IDSna25.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/nowe-alnico-v-fleor-przetworniki-pickup-gitara-elektryczna-telecaster-CID751-IDW769P.html", "Link")</f>
         <v/>
       </c>
       <c r="F12">
@@ -3741,17 +3651,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gitara elektryczna telecaster thinline Raven, jak nowa</t>
+          <t>Gruby 4cm wodoodporny premium gigbag pokrowiec gitarowy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>980 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rawicz, Osiedle 350 Lecia Rawicza</t>
+          <t>Wrocław, Śródmieście</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3760,7 +3670,7 @@
         </is>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-telecaster-thinline-raven-jak-nowa-CID751-IDKhSjU.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gruby-4cm-wodoodporny-premium-gigbag-pokrowiec-gitarowy-CID751-IDSna25.html", "Link")</f>
         <v/>
       </c>
       <c r="F13">
@@ -3771,17 +3681,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZADBANA gitara elektryczna Fender Telecaster Made in Mexico +pokrowiec</t>
+          <t>Gitara elektryczna telecaster thinline Raven, jak nowa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2 699 zł</t>
+          <t>980 zł</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Głogów</t>
+          <t>Rawicz, Osiedle 350 Lecia Rawicza</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3790,7 +3700,7 @@
         </is>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/zadbana-gitara-elektryczna-fender-telecaster-made-in-mexico-pokrowiec-CID751-IDRMq6X.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-telecaster-thinline-raven-jak-nowa-CID751-IDKhSjU.html", "Link")</f>
         <v/>
       </c>
       <c r="F14">
@@ -3801,26 +3711,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fender Standard Telecaster MIM</t>
+          <t>ZADBANA gitara elektryczna Fender Telecaster Made in Mexico +pokrowiec</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2 400 zł</t>
+          <t>2 699 zł</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brzeg</t>
+          <t>Głogów</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-standard-telecaster-mim-CID751-IDUFSeN.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/zadbana-gitara-elektryczna-fender-telecaster-made-in-mexico-pokrowiec-CID751-IDRMq6X.html", "Link")</f>
         <v/>
       </c>
       <c r="F15">
@@ -3831,26 +3741,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fender telecaster (partcaster) thinline</t>
+          <t>Fender Standard Telecaster MIM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2 800 zł</t>
+          <t>2 400 zł</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wrocław, Śródmieście</t>
+          <t>Brzeg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>21 czerwca 2023</t>
         </is>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-telecaster-partcaster-thinline-CID751-IDUOpC5.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-standard-telecaster-mim-CID751-IDUFSeN.html", "Link")</f>
         <v/>
       </c>
       <c r="F16">
@@ -3861,12 +3771,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gitara Telecaster VGS Skycruiser sprzedam!!!</t>
+          <t>Fender telecaster (partcaster) thinline</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>850 zł</t>
+          <t>2 800 zł</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3880,7 +3790,7 @@
         </is>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-telecaster-vgs-skycruiser-sprzedam-CID751-IDxwi13.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-telecaster-partcaster-thinline-CID751-IDUOpC5.html", "Link")</f>
         <v/>
       </c>
       <c r="F17">
@@ -3891,26 +3801,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gitara elektryczna mensinger maverick telecaster Fender</t>
+          <t>Gitara Telecaster VGS Skycruiser sprzedam!!!</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4 498 zł</t>
+          <t>850 zł</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Wrocław, Śródmieście</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-mensinger-maverick-telecaster-fender-CID751-IDW3CWc.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-telecaster-vgs-skycruiser-sprzedam-CID751-IDxwi13.html", "Link")</f>
         <v/>
       </c>
       <c r="F18">
@@ -3921,17 +3831,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Klucze stratocaster Telecaster everplay</t>
+          <t>Gitara elektryczna mensinger maverick telecaster Fender</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>30 zł</t>
+          <t>4 498 zł</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3940,7 +3850,7 @@
         </is>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/klucze-stratocaster-telecaster-everplay-CID751-IDW3by2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-mensinger-maverick-telecaster-fender-CID751-IDW3CWc.html", "Link")</f>
         <v/>
       </c>
       <c r="F19">
@@ -4581,42 +4491,42 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fender Telecaster Boxer Made in  Japan</t>
+          <t>Gitara elektryczna ESP LTD ec-10 i Wzmacniacz Fender Champion 20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4 490 zł</t>
+          <t>1 150 zł</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Świeradów-Zdrój</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>30 maja 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-telecaster-boxer-made-in-japan-CID751-IDToiYh.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-esp-ltd-ec-10-i-wzmacniacz-fender-champion-20-CID751-IDUOQ8M.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F41">
-        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/dr1vg5w1y38y-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Gitara leworęczna ESP LTD EC-1000 Deluxe - Gibson 500t &amp; 490r</t>
+          <t>Gitara basowa leworęczna ESP ltd B-205SM LH leworęczny</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4 799 zł</t>
+          <t>2 299 zł</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4626,57 +4536,57 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>Odświeżono dnia 29 czerwca 2023</t>
         </is>
       </c>
       <c r="E42">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-leworeczna-esp-ltd-ec-1000-deluxe-gibson-500t-490r-CID751-IDWbgZY.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-basowa-leworeczna-esp-ltd-b-205sm-lh-leworeczny-CID751-IDUKkAK.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F42">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/r3gt1dujkbrx-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/qei66x9clf611-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gitara ESP LTD EC-401 FR BLK</t>
+          <t>Gitara leworęczna ESP LTD EC-1000 Deluxe - Gibson 500t &amp; 490r</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3 499 zł</t>
+          <t>4 799 zł</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Jarocin</t>
+          <t>Leszno</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>Odświeżono dnia 29 czerwca 2023</t>
         </is>
       </c>
       <c r="E43">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-esp-ltd-ec-401-fr-blk-CID751-IDS52vg.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-leworeczna-esp-ltd-ec-1000-deluxe-gibson-500t-490r-CID751-IDWbgZY.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F43">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/igmf317he89f2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/r3gt1dujkbrx-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gitara basowa leworęczna ESP ltd B-205SM LH leworęczny</t>
+          <t>Klucze do gitary ESP - dwa prawe klucze cosmo black</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2 299 zł</t>
+          <t>150 zł</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4686,101 +4596,101 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E44">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-basowa-leworeczna-esp-ltd-b-205sm-lh-leworeczny-CID751-IDUKkAK.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/klucze-do-gitary-esp-dwa-prawe-klucze-cosmo-black-CID751-IDQq4jH.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F44">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/qei66x9clf611-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/metg3wbiym3x1-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ESP LTD KH602 gitara leworęczna</t>
+          <t>Klucz do gitary marki HIPSHOT - dla siedmiostrunówki (struna basowa 7)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4 299 zł</t>
+          <t>100 zł</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Leszno</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E45">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/esp-ltd-kh602-gitara-leworeczna-CID751-IDTG8Ak.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/klucz-do-gitary-marki-hipshot-dla-siedmiostrunowki-struna-basowa-7-CID751-IDQq45x.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F45">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/6rdeq1b4doqx2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/r50r4m3421en2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Boss ds2 distortion</t>
+          <t>Komplet kluczy do gitary</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>280 zł</t>
+          <t>30 zł</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wrocław, Psie Pole</t>
+          <t>Leszno</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E46">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds2-distortion-CID751-IDW50HQ.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/komplet-kluczy-do-gitary-CID751-IDRDN82.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F46">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/3fq7335b8of9-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gitara elektryczna ESP LTD EX 401-DX</t>
+          <t>Brelok do kluczy gitara zegarek okazja rock gadżet</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3 000 zł</t>
+          <t>39 zł</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nowa Wieś Mała</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E47">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-esp-ltd-ex-401-dx-CID751-IDTzfUP.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/brelok-do-kluczy-gitara-zegarek-okazja-rock-gadzet-CID87-IDSlcgK.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F47">
@@ -4791,26 +4701,26 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Przester AMT R2 Legend amps distortion over drive messa peavey gitara</t>
+          <t>Gitara elektryczna ESP LTD KH-202+Case</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>500 zł</t>
+          <t>2 250 zł</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wrocław, Psie Pole</t>
+          <t>Dzierżoniów</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E48">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/przester-amt-r2-legend-amps-distortion-over-drive-messa-peavey-gitara-CID751-IDUCNF9.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-esp-ltd-kh-202-case-CID751-IDTSpTB.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F48">
@@ -4821,26 +4731,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gitara Ltd esp 330 FM gitara</t>
+          <t>Gitara ESP LTD EC-401 FR BLK</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2 400 zł</t>
+          <t>3 499 zł</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Jarocin</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E49">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-ltd-esp-330-fm-gitara-CID751-IDW2ady.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-esp-ltd-ec-401-fr-blk-CID751-IDS52vg.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F49">
@@ -4851,26 +4761,26 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Klucze Yamaha do gitary elektrycznej</t>
+          <t>ESP LTD KH602 gitara leworęczna</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>180 zł</t>
+          <t>4 299 zł</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Jędrzychów</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E50">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/klucze-yamaha-do-gitary-elektrycznej-CID751-IDToFOl.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/esp-ltd-kh602-gitara-leworeczna-CID751-IDTG8Ak.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F50">
@@ -4881,26 +4791,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ESP LTD F-104 LEWORĘCZNA gitara basowa</t>
+          <t>Boss ds2 distortion</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>900 zł</t>
+          <t>250 zł</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wrocław, Śródmieście</t>
+          <t>Wrocław, Psie Pole</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15 czerwca 2023</t>
+          <t>20 czerwca 2023</t>
         </is>
       </c>
       <c r="E51">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/esp-ltd-f-104-leworeczna-gitara-basowa-CID751-IDSePZX.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds2-distortion-CID751-IDW50HQ.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F51">
@@ -4911,26 +4821,26 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gitara elektryczna ESP LTD ec-10 i Wzmacniacz Fender Champion 20</t>
+          <t>Gitara elektryczna ESP LTD EX 401-DX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1 150 zł</t>
+          <t>2 900 zł</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Świeradów-Zdrój</t>
+          <t>Nowa Wieś Mała</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E52">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-esp-ltd-ec-10-i-wzmacniacz-fender-champion-20-CID751-IDUOQ8M.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-esp-ltd-ex-401-dx-CID751-IDTzfUP.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F52">
@@ -4941,26 +4851,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Esp LTD EC400VF eclipse gitara elektryczna</t>
+          <t>Przester AMT R2 Legend amps distortion over drive messa peavey gitara</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2 450 zł</t>
+          <t>466 zł</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Wrocław, Psie Pole</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>15 czerwca 2023</t>
+          <t>17 czerwca 2023</t>
         </is>
       </c>
       <c r="E53">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/esp-ltd-ec400vf-eclipse-gitara-elektryczna-CID751-IDSq6ht.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/przester-amt-r2-legend-amps-distortion-over-drive-messa-peavey-gitara-CID751-IDUCNF9.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F53">
@@ -4971,26 +4881,26 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gitara elektryczna ESP LTD KH-202+Case</t>
+          <t>Gitara Ltd esp 330 FM gitara</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2 250 zł</t>
+          <t>2 400 zł</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dzierżoniów</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14 czerwca 2023</t>
+          <t>17 czerwca 2023</t>
         </is>
       </c>
       <c r="E54">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-elektryczna-esp-ltd-kh-202-case-CID751-IDTSpTB.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gitara-ltd-esp-330-fm-gitara-CID751-IDW2ady.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F54">
@@ -5001,26 +4911,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Brelok do kluczy gitara zegarek okazja rock gadżet</t>
+          <t>ESP LTD F-104 LEWORĘCZNA gitara basowa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>39 zł</t>
+          <t>900 zł</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Wrocław, Śródmieście</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13 czerwca 2023</t>
+          <t>15 czerwca 2023</t>
         </is>
       </c>
       <c r="E55">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/brelok-do-kluczy-gitara-zegarek-okazja-rock-gadzet-CID87-IDSlcgK.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/esp-ltd-f-104-leworeczna-gitara-basowa-CID751-IDSePZX.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F55">
@@ -5174,36 +5084,6 @@
         <v/>
       </c>
       <c r="F60">
-        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Komplet kluczy do gitary</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>30 zł</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Leszno</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>29 maja 2023</t>
-        </is>
-      </c>
-      <c r="E61">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/komplet-kluczy-do-gitary-CID751-IDRDN82.html?reason=extended_search_extended_s2v", "Link")</f>
-        <v/>
-      </c>
-      <c r="F61">
         <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
         <v/>
       </c>
@@ -5262,176 +5142,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wzmacniacz Audiolab 8300A - możliwa zamiana</t>
+          <t>Amplituner wzmacniacz Radmor 5102 zaplombowany 1981r okazja nie Diora</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zamienię</t>
+          <t>1 350 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Żeliszów</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 25 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-audiolab-8300a-mozliwa-zamiana-CID99-IDTtH1C.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/amplituner-wzmacniacz-radmor-5102-zaplombowany-1981r-okazja-nie-diora-CID99-IDUWhzJ.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/ousetd3g18v93-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/xxqs98d2tco43-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kenwood ka601 super wzmacniacz</t>
+          <t>Fezz Audio Silver Luna. Okazja! Cena do Soboty!!!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>2 600 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>Piecowice</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/kenwood-ka601-super-wzmacniacz-CID99-IDW9ghQ.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fezz-audio-silver-luna-okazja-cena-do-soboty-CID99-IDWbkE6.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/gb6xmct716z41-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/h3jz2jn12suk2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wzmacniacz sieci WI-FI TP-LINK</t>
+          <t>Wzmacniacz Yamaha DSP-A1 moc i dynamika stereo 23KG+Pilot</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50 zł</t>
+          <t>1 550 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Biernatki</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>17 czerwca 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-sieci-wi-fi-tp-link-CID99-IDTHjTj.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-yamaha-dsp-a1-moc-i-dynamika-stereo-23kg-pilot-CID99-IDUCkYN.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/tx7p6dbdbjvm2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/utzl1y77nysk3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zestaw HARLEY BENTON ST-62MN BK Blackstar ID</t>
+          <t>Subwoofer aktywny Carbon CS-030 Moc 150 Watt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>950 zł</t>
+          <t>299,99 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Zgorzelec</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28 czerwiec 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/zestaw-harley-benton-st-62mn-bk-blackstar-id-CID751-IDW7i5n.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/subwoofer-aktywny-carbon-cs-030-moc-150-watt-CID99-IDWeCJs.html", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/g96xjomzlmji2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/dk5ipllvm6611-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Najnowszy Marantz Cinema 50 - możliwa zamiana</t>
+          <t>BMW E65 WZMACNIACZ HIFI LOGIC BECKER 6922807</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7 600 zł</t>
+          <t>849 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Jasień</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28 czerwiec 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/najnowszy-marantz-cinema-50-mozliwa-zamiana-CID99-IDW5CxH.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/bmw-e65-wzmacniacz-hifi-logic-becker-6922807-ID6FDknp.html", "Link")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/nzfnpoohdqnd2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/rjtqvleepvfc3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Subower aktywny Teac  LS W300</t>
+          <t>Wzmacniacz/Dac słuchawkowy Woo audio Wa7  II gen.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>140 zł</t>
+          <t>4 300 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Żmigród</t>
+          <t>Nysa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/subower-aktywny-teac-ls-w300-CID99-IDS6reI.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-dac-sluchawkowy-woo-audio-wa7-ii-gen-CID99-IDUNq5l.html", "Link")</f>
         <v/>
       </c>
       <c r="F7">
@@ -5442,26 +5322,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mercedes W204 WZMACNIACZ ANTENOWY A2048702789</t>
+          <t>Wzmacniacz do basu: Behringer BVT 4500H czyli Ampeg SVT 450H</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>99 zł</t>
+          <t>499 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wołów</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/mercedes-w204-wzmacniacz-antenowy-a2048702789-ID6DnfQT.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-do-basu-behringer-bvt-4500h-czyli-ampeg-svt-450h-CID751-IDUQpuF.html", "Link")</f>
         <v/>
       </c>
       <c r="F8">
@@ -5472,26 +5352,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MERCEDES W245 WZMACNIacz anteny a1698200475</t>
+          <t>Moduł/wzmacniacz anteny Mercedes W211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25 zł</t>
+          <t>50 zł</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wołów</t>
+          <t>Milicz</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/mercedes-w245-wzmacniacz-anteny-a1698200475-ID6DnfG7.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/modul-wzmacniacz-anteny-mercedes-w211-CID5-IDWeCll.html", "Link")</f>
         <v/>
       </c>
       <c r="F9">
@@ -5502,26 +5382,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MONITOR AUDIO SILVER 500 7G | odsłuch | zamiana | dostawa</t>
+          <t>Wzmacniacz FRITZ! WLAN Repeater 450E</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zamienię</t>
+          <t>270 zł</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Wrocław, Psie Pole</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/monitor-audio-silver-500-7g-odsluch-zamiana-dostawa-CID99-IDTKa1o.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-fritz-wlan-repeater-450e-CID99-IDPU8hc.html", "Link")</f>
         <v/>
       </c>
       <c r="F10">
@@ -5532,26 +5412,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Strong powerline wiFi 500 wzmacniacz sygnału</t>
+          <t>Monoblokii zasilacze wersi TS5001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159 zł</t>
+          <t>550 zł</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Piekary</t>
+          <t>Koźmin Wielkopolski</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/strong-powerline-wifi-500-wzmacniacz-sygnalu-CID99-IDTxxZ3.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/monoblokii-zasilacze-wersi-ts5001-CID99-IDUFJLS.html", "Link")</f>
         <v/>
       </c>
       <c r="F11">
@@ -5562,26 +5442,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WZMACNIACZ BOSE AUDI A6 C6 4F0035223D 4F0910223D</t>
+          <t>Kolumny z kamienia Pfleid PP-8 Mk 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1 300 zł</t>
+          <t>3 600 zł</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wschowa</t>
+          <t>Koźmin Wielkopolski</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-bose-audi-a6-c6-4f0035223d-4f0910223d-ID6Fi3NC.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/kolumny-z-kamienia-pfleid-pp-8-mk-2-CID99-IDSakz2.html", "Link")</f>
         <v/>
       </c>
       <c r="F12">
@@ -5592,26 +5472,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skóra biała owinięta mięsem kaczki 25cm 2szt</t>
+          <t>PORSCHE 911 997 WZMACNIACZ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16 zł</t>
+          <t>950 zł</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wołów</t>
+          <t>Oława</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/skora-biala-owinieta-miesem-kaczki-25cm-2szt-CID103-IDUZ8Z3.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/porsche-911-997-wzmacniacz-ID6FswhG.html", "Link")</f>
         <v/>
       </c>
       <c r="F13">
@@ -5622,26 +5502,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AUDI A4 B7 05r WZMACNIACZ 8E9035223D</t>
+          <t>Denon PMA-1060 uszkodzony</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>69 zł</t>
+          <t>500 zł</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Szprotawa</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/audi-a4-b7-05r-wzmacniacz-8e9035223d-ID6F8kRa.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/denon-pma-1060-uszkodzony-CID99-IDWeBV9.html", "Link")</f>
         <v/>
       </c>
       <c r="F14">
@@ -5652,26 +5532,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nowość niesamowity Atoll SDA200 Signature  - możliwa zamiana</t>
+          <t>Akai AM-55. Made in Japan. 2 x BurrBrown PCM56</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zamienię</t>
+          <t>1 000 zł</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/nowosc-niesamowity-atoll-sda200-signature-mozliwa-zamiana-CID99-IDS7XJY.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/akai-am-55-made-in-japan-2-x-burrbrown-pcm56-CID99-IDU0CN6.html", "Link")</f>
         <v/>
       </c>
       <c r="F15">
@@ -5682,26 +5562,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amplituner wzmacniacz Radmor 5102 zaplombowany 1981r okazja nie Diora</t>
+          <t>Słuchawkowę adapter audio USB-DAC 7Hz 71</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1 350 zł</t>
+          <t>160 zł</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Żeliszów</t>
+          <t>Leszno</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>Odświeżono dnia 29 czerwca 2023</t>
         </is>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/amplituner-wzmacniacz-radmor-5102-zaplombowany-1981r-okazja-nie-diora-CID99-IDUWhzJ.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sluchawkowe-adapter-audio-usb-dac-7hz-71-CID99-IDSEMLL.html", "Link")</f>
         <v/>
       </c>
       <c r="F16">
@@ -5712,26 +5592,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wzmacniacz Yamaha DSP-A1 moc i dynamika stereo 23KG+Pilot</t>
+          <t>Yamaha A-S501 Wzmacniacz stereo z pilotem</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1 550 zł</t>
+          <t>990 zł</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Lubin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-yamaha-dsp-a1-moc-i-dynamika-stereo-23kg-pilot-CID99-IDUCkYN.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/yamaha-a-s501-wzmacniacz-stereo-z-pilotem-CID99-IDUOa9Q.html", "Link")</f>
         <v/>
       </c>
       <c r="F17">
@@ -5742,26 +5622,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wzmacniacz Arcam SA 20 / 30 - możliwa zamiana</t>
+          <t>CHRYSLER 300C MODUŁ WZMACNIACZ 05064118AJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zamienię</t>
+          <t>99 zł</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Jasień</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-arcam-sa-20-30-mozliwa-zamiana-CID99-IDSNvwI.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/chrysler-300c-modul-wzmacniacz-05064118aj-ID6FDkgF.html", "Link")</f>
         <v/>
       </c>
       <c r="F18">
@@ -5772,26 +5652,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nowość Focal Vestia N°2 - dostawa do domu w 24h</t>
+          <t>NAJBOGATSZA WERSJA Vignale !!  2019 Full !! 1000%Bezwyp.FV23% IDEALNY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zamienię</t>
+          <t>81 400 zł</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Świdnica</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/nowosc-focal-vestia-n2-dostawa-do-domu-w-24h-CID99-IDTav9r.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/najbogatsza-wersja-vignale-2019-full-1000-bezwyp-fv23-idealny-CID5-IDTOD9O.html", "Link")</f>
         <v/>
       </c>
       <c r="F19">
@@ -5802,26 +5682,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ford Mustang Ford Mustang na 55 lecie gwar. do 2027 JAK NOWY</t>
+          <t>JAGUAR XF X250 WZMACNIACZ 6H52-18C808-CD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>215 250 zł</t>
+          <t>80 zł</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Brenno</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/osobowe/oferta/ford-mustang-ford-mustang-na-55-lecie-gwar-do-2027-jak-nowy-ID6Fs9SQ.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/jaguar-xf-x250-wzmacniacz-6h52-18c808-cd-ID6FBobm.html", "Link")</f>
         <v/>
       </c>
       <c r="F20">
@@ -5832,26 +5712,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Crunch GPX1000.4</t>
+          <t>odtwarzacz płyt CD DVD Yamaha DVD-S557</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>250 zł</t>
+          <t>199 zł</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Góra</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/crunch-gpx1000-4-CID5-IDWbvOz.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/odtwarzacz-plyt-cd-dvd-yamaha-dvd-s557-CID99-IDJu3oR.html", "Link")</f>
         <v/>
       </c>
       <c r="F21">
@@ -5862,26 +5742,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Radio z wzmacniaczem Harman Kardon Mercedes</t>
+          <t>Fostex linia tansmisyjna horn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2 000 zł</t>
+          <t>1 400 zł</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Oława</t>
+          <t>Koźmin Wielkopolski</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/radio-z-wzmacniaczem-harman-kardon-mercedes-CID5-IDUYlei.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fostex-linia-tansmisyjna-horn-CID99-IDRW9OC.html", "Link")</f>
         <v/>
       </c>
       <c r="F22">
@@ -5892,26 +5772,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Volkswagen Multivan VW Multivan Generation 151 KM -170 KM</t>
+          <t>Monitor Audio Bronze 100</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>59 000 zł</t>
+          <t>1 599 zł</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Żary</t>
+          <t>Leszno</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/osobowe/oferta/volkswagen-multivan-vw-multivan-generation-151-km-170-km-ID6F2gXV.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/monitor-audio-bronze-100-CID99-IDUsTCA.html", "Link")</f>
         <v/>
       </c>
       <c r="F23">
@@ -5922,26 +5802,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Blu-Ray SAMSUNG BD-F8500 HDD 500 GB dekoder karta CI+ Menu PL</t>
+          <t>WZMACNIACZ ANTENY 8X23-18C847-BB JAGUAR XF X250</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>570 zł</t>
+          <t>45 zł</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Brenno</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/blu-ray-samsung-bd-f8500-hdd-500-gb-dekoder-karta-ci-menu-pl-CID99-IDT3DTM.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-anteny-8x23-18c847-bb-jaguar-xf-x250-ID6FBo72.html", "Link")</f>
         <v/>
       </c>
       <c r="F24">
@@ -5952,26 +5832,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Odtwarzacz CD TECHNICS SL-PG4 * czyta CD-R * BDB</t>
+          <t>WZMACNIACZ ANTENY BMW F11 9228967</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>390 zł</t>
+          <t>80 zł</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Brenno</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/odtwarzacz-cd-technics-sl-pg4-czyta-cd-r-bdb-CID99-IDTOcJv.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-anteny-bmw-f11-9228967-ID6FBo69.html", "Link")</f>
         <v/>
       </c>
       <c r="F25">
@@ -5982,26 +5862,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Audi A3 8P wzmacniacz anteny</t>
+          <t>Carthago Chic E-line I64QB XL - 2023 - Mercedes ALKO - dodatkowe pakiety i opcje, HAK  SAT, TV 40", Dometic Sinpower 230V, CBE Solar, HAK, ALKO ALDE 3030</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>30 zł</t>
+          <t>1 190 000 zł</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Świętoszów</t>
+          <t>Dzierżoniów</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/audi-a3-8p-wzmacniacz-anteny-ID6DURyk.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/carthago-chic-e-line-i64qb-xl-2023-mercedes-alko-dodatkowe-pakiety-i-opcje-hak-sat-tv-40-dometic-sinpower-230v-cbe-solar-hak-alko-alde-3030-ID6FC2pF.html", "Link")</f>
         <v/>
       </c>
       <c r="F26">
@@ -6012,26 +5892,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AUDI A3 A6 A7 A8 WZMACNIACZ ANTENOWY 4H0035456</t>
+          <t>CADILLAC BLS WZMACNIACZ AUDIO BOSE 12760586</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>130 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lubin</t>
+          <t>Brenno</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/audi-a3-a6-a7-a8-wzmacniacz-antenowy-4h0035456-ID6EZtzd.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/cadillac-bls-wzmacniacz-audio-bose-12760586-ID6FBo0v.html", "Link")</f>
         <v/>
       </c>
       <c r="F27">
@@ -6042,26 +5922,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Odtwarzacz sieciowy Cambridge Audio Evo 150 - amplituner All in One</t>
+          <t>Kenwood ka601 super wzmacniacz</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Zamienię</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 26 czerwca 2023</t>
+          <t>Odświeżono dnia 29 czerwca 2023</t>
         </is>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/odtwarzacz-sieciowy-cambridge-audio-evo-150-amplituner-all-in-one-CID99-IDSCZRw.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/kenwood-ka601-super-wzmacniacz-CID99-IDW9ghQ.html", "Link")</f>
         <v/>
       </c>
       <c r="F28">
@@ -6072,7 +5952,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Stereo Arcam SA-30 | nagroda EISA | wszystkie funkcje sieciowe</t>
+          <t>Wzmacniacz Audiolab 8300A - możliwa zamiana</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6087,11 +5967,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 25 czerwca 2023</t>
+          <t>Odświeżono dnia 28 czerwca 2023</t>
         </is>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/stereo-arcam-sa-30-nagroda-eisa-wszystkie-funkcje-sieciowe-CID99-IDT36E5.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-audiolab-8300a-mozliwa-zamiana-CID99-IDTtH1C.html", "Link")</f>
         <v/>
       </c>
       <c r="F29">
@@ -6102,26 +5982,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Super Wzmacniacz KENWOOD KA-7100  100% Sprawny Zapraszam</t>
+          <t>Wzmacniacz stereo Hi-fi CAA-100</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1 650 zł</t>
+          <t>250 zł</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Świdnica</t>
+          <t>Lubin</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/super-wzmacniacz-kenwood-ka-7100-100-sprawny-zapraszam-CID99-IDW6URA.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-stereo-hi-fi-caa-100-CID99-IDR5a6E.html", "Link")</f>
         <v/>
       </c>
       <c r="F30">
@@ -6132,26 +6012,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Audi A3 8P wzmacniacz anteny</t>
+          <t>Wzmacniacz Bose ML W163 A1638202789</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>40 zł</t>
+          <t>149 zł</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Świętoszów</t>
+          <t>Lwówek Śląski</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E31">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/audi-a3-8p-wzmacniacz-anteny-ID6DURDW.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-bose-ml-w163-a1638202789-ID6DxqDb.html", "Link")</f>
         <v/>
       </c>
       <c r="F31">
@@ -6162,26 +6042,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Słuchawkowę adapter audio USB-DAC 7Hz 71</t>
+          <t>HYUNDAI I40 WZMACNIACZ 963703Z150</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>160 zł</t>
+          <t>299 zł</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Leszno</t>
+          <t>Nowa Sól</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E32">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/sluchawkowe-adapter-audio-usb-dac-7hz-71-CID99-IDSEMLL.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/hyundai-i40-wzmacniacz-963703z150-ID6FnG6g.html", "Link")</f>
         <v/>
       </c>
       <c r="F32">
@@ -6192,26 +6072,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kolumny podłogowe CAT Berlin 2006</t>
+          <t>Bose Zestaw Głosniki  wzmacniacz PORSCHE PANAMERA 970  komplet</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>210 zł</t>
+          <t>2 600 zł</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Leszno</t>
+          <t>Gaiki</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E33">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/kolumny-podlogowe-cat-berlin-2006-CID99-IDSuu3X.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/bose-zestaw-glosniki-wzmacniacz-porsche-panamera-970-komplet-CID5-IDSbGfY.html", "Link")</f>
         <v/>
       </c>
       <c r="F33">
@@ -6222,26 +6102,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Radio samochodowe Sony CDX-GT35U Mp3 USB AUX</t>
+          <t>WZMACNIACZ SYSTEMU HIFI 8374535 AUDIO BMW E39</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>179 zł</t>
+          <t>49,99 zł</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E34">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/radio-samochodowe-sony-cdx-gt35u-mp3-usb-aux-CID5-IDWbwGT.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-systemu-hifi-8374535-audio-bmw-e39-ID6DUGaM.html", "Link")</f>
         <v/>
       </c>
       <c r="F34">
@@ -6252,26 +6132,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sony SB-600 selektor przełacznik gramofon kolumny wzmacniacz swich</t>
+          <t>WZMACNIACZ ANTENOWY DIVERSITY 6912817 BMW E46 E85</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>550 zł</t>
+          <t>29,99 zł</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E35">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/sony-sb-600-selektor-przelacznik-gramofon-kolumny-wzmacniacz-swich-CID99-IDWbwyi.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-antenowy-diversity-6912817-bmw-e46-e85-ID6DUFZd.html", "Link")</f>
         <v/>
       </c>
       <c r="F35">
@@ -6282,26 +6162,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Wzmacniacz Hannibal 4 x 200W RMS</t>
+          <t>WZMACNIACZ HIFI HARMAN KARDON BMW E46 CABIO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1 700 zł</t>
+          <t>299 zł</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wrocław, Psie Pole</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E36">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-hannibal-4-x-200w-rms-CID99-IDUk8ut.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-hifi-harman-kardon-bmw-e46-cabio-ID6DUFZt.html", "Link")</f>
         <v/>
       </c>
       <c r="F36">
@@ -6312,56 +6192,56 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Volvo XC 60 R-Design Dark Plus Full Led Martwe Pole Lane Assist Znaki El.Hak F.Vat</t>
+          <t>WZMACNIACZ ANTENOWY 8J0035456 AUDI A4 B8 KOMBI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>184 899 zł</t>
+          <t>40 zł</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kamienna Góra</t>
+          <t>Brenno</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E37">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/osobowe/oferta/volvo-xc-60-r-design-dark-plus-full-led-martwe-pole-lane-assist-znaki-el-hak-f-vat-ID6FCpbi.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-antenowy-8j0035456-audi-a4-b8-kombi-ID6FBnWJ.html", "Link")</f>
         <v/>
       </c>
       <c r="F37">
-        <f>HYPERLINK("None", "Photo")</f>
+        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>QUAD 99 końcówka mocy i przedwzmacniacz Para</t>
+          <t>Mini wzmacniacz gitarowy Marshall MS2 Red</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4 499 zł</t>
+          <t>99 zł</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wrocław, Krzyki</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E38">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/quad-99-koncowka-mocy-i-przedwzmacniacz-para-CID99-IDSkJln.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/mini-wzmacniacz-gitarowy-marshall-ms2-red-CID751-IDWeznr.html", "Link")</f>
         <v/>
       </c>
       <c r="F38">
@@ -6372,27 +6252,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Radioodtwarzacz samochodowy Sony MEX-BT3800U
-nr kat. 345347</t>
+          <t>Przedwzmacniacz hybrydowy Vincent SA - 31MK czarny pilot</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>100 zł</t>
+          <t>2 900 zł</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nysa</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E39">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/radioodtwarzacz-samochodowy-sony-mex-bt3800unr-kat-345347-CID99-IDWbuPr.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/przedwzmacniacz-hybrydowy-vincent-sa-31mk-czarny-pilot-CID99-IDWezd7.html", "Link")</f>
         <v/>
       </c>
       <c r="F39">
@@ -6403,26 +6282,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Wzmacniacz Philips FA567</t>
+          <t>Chord Hugo TT2 Dac / przedwzmacniacz / wzmacniacz  słuchawkowy</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>199 zł</t>
+          <t>15 300 zł</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wrocław, Stare Miasto</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E40">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-philips-fa567-CID99-IDWbun1.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/chord-hugo-tt2-dac-przedwzmacniacz-wzmacniacz-sluchawkowy-CID99-IDSYpeu.html", "Link")</f>
         <v/>
       </c>
       <c r="F40">
@@ -6433,7 +6312,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Najnowszy Denon AVC-A1H - od ręki - możliwa zamiana</t>
+          <t>Odtwarzacz sieciowy Cambridge Audio Evo 150 - amplituner All in One</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6448,11 +6327,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 25 czerwca 2023</t>
+          <t>Odświeżono dnia 29 czerwca 2023</t>
         </is>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/najnowszy-denon-avc-a1h-od-reki-mozliwa-zamiana-CID99-IDTnOts.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/odtwarzacz-sieciowy-cambridge-audio-evo-150-amplituner-all-in-one-CID99-IDSCZRw.html", "Link")</f>
         <v/>
       </c>
       <c r="F41">
@@ -6463,7 +6342,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cambridge Audio EVO 150 + Focal Aria 906 - trade in</t>
+          <t>Stereo Arcam SA-30 | nagroda EISA | wszystkie funkcje sieciowe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6478,11 +6357,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>Odświeżono dnia 28 czerwca 2023</t>
         </is>
       </c>
       <c r="E42">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/cambridge-audio-evo-150-focal-aria-906-trade-in-CID99-IDTgzrl.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/stereo-arcam-sa-30-nagroda-eisa-wszystkie-funkcje-sieciowe-CID99-IDT36E5.html", "Link")</f>
         <v/>
       </c>
       <c r="F42">
@@ -6493,26 +6372,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Wzmacniacz Monrio MC207 MK2 z DAC</t>
+          <t>Wzmacniacz AVM Evolution A2 chrome limited - rezerwacja</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7 700 zł</t>
+          <t>2 900 zł</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trzebnica</t>
+          <t>Wrocław, Krzyki</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E43">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-monrio-mc207-mk2-z-dac-CID99-IDU1Jra.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-avm-evolution-a2-chrome-limited-rezerwacja-CID99-IDTPHaN.html", "Link")</f>
         <v/>
       </c>
       <c r="F43">
@@ -6523,26 +6402,26 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Audi A6 HD Matrix Led Panorama BangOlufsen Dociąganie Drzwi ACC Lane Assist</t>
+          <t>Sony RM-S316 Oryginał</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>279 900 zł</t>
+          <t>250 zł</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kamienna Góra</t>
+          <t>Wrocław, Psie Pole</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E44">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/osobowe/oferta/audi-a6-hd-matrix-led-panorama-bangolufsen-dociaganie-drzwi-acc-lane-assist-ID6FCoPB.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sony-rm-s316-oryginal-CID99-IDO9A3m.html", "Link")</f>
         <v/>
       </c>
       <c r="F44">
@@ -6553,26 +6432,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Metronic 332175 - Wewnętrzny wzmacniacz antenowy - rozdzielacz</t>
+          <t>Audi A4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>40 zł</t>
+          <t>24 200 zł</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Świebodzice</t>
+          <t>Głogów</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E45">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/metronic-332175-wewnetrzny-wzmacniacz-antenowy-rozdzielacz-CID99-IDU9CjC.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/audi-a4-ID6FBnPd.html", "Link")</f>
         <v/>
       </c>
       <c r="F45">
@@ -6583,26 +6462,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Subwoofer aktywny YAMAHA SW-P130 do kina do muzyki</t>
+          <t>Wzmacniacz HiFi Bmw e46</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>360 zł</t>
+          <t>129 zł</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E46">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/subwoofer-aktywny-yamaha-sw-p130-do-kina-do-muzyki-CID99-IDUZ1TS.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-hifi-bmw-e46-ID6EHK14.html", "Link")</f>
         <v/>
       </c>
       <c r="F46">
@@ -6613,26 +6492,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Wzmacniacz Stereo SONY TA-FE370 + Tuner ST-SE370 * 2x70W 4-16 Ohm *</t>
+          <t>WZMACNIACZ ANTENOWY DIVERSITY 6928934 BMW E90 E92</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>570 zł</t>
+          <t>59 zł</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E47">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-stereo-sony-ta-fe370-tuner-st-se370-2x70w-4-16-ohm-CID99-IDMbJFs.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-antenowy-diversity-6928934-bmw-e90-e92-ID6DUEaM.html", "Link")</f>
         <v/>
       </c>
       <c r="F47">
@@ -6643,26 +6522,26 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Wzmacniacz gitarowy Peavey Envoy 110 40W</t>
+          <t>WZMACNIACZ ANTENOWY 6990090 FILTR BMW E60 E71 E90</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>550 zł</t>
+          <t>19,99 zł</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E48">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-gitarowy-peavey-envoy-110-40w-CID99-IDWbtxc.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-antenowy-6990090-filtr-bmw-e60-e71-e90-ID6DUE4I.html", "Link")</f>
         <v/>
       </c>
       <c r="F48">
@@ -6673,26 +6552,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kino domowe Pioneer XV-DV313 5.1 * pilot * fajny bas komplet</t>
+          <t>WZMACNIACZ ANTENOWY 8377654 BMW E53 X5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>460 zł</t>
+          <t>59 zł</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E49">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/kino-domowe-pioneer-xv-dv313-5-1-pilot-fajny-bas-komplet-CID99-IDSxEjs.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/wzmacniacz-antenowy-8377654-bmw-e53-x5-ID6DUETl.html", "Link")</f>
         <v/>
       </c>
       <c r="F49">
@@ -6703,26 +6582,26 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Amplituner Stereo DENON DRA-F100 porządny wzmacniacz MIDI mały rozmiar</t>
+          <t>AUDI A4 B6 MODUŁ WZMACNIACZ ANTENOTWY 8E9035225M</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>400 zł</t>
+          <t>99 zł</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Jasień</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E50">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/amplituner-stereo-denon-dra-f100-porzadny-wzmacniacz-midi-maly-rozmiar-CID99-IDTAM9m.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/audi-a4-b6-modul-wzmacniacz-antenotwy-8e9035225m-ID6FDjhN.html", "Link")</f>
         <v/>
       </c>
       <c r="F50">
@@ -6733,26 +6612,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pilot YAMAHA RAV22 oryginalny do amplituner RX-V HTR-</t>
+          <t>Tuba basowa, skrzynia basowa JBL 1000W + Wzmacniacz MAGNAT 1100W</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>160 zł</t>
+          <t>600 zł</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Kubice</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E51">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pilot-yamaha-rav22-oryginalny-do-amplituner-rx-v-htr-CID99-IDTAObO.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/tuba-basowa-skrzynia-basowa-jbl-1000w-wzmacniacz-magnat-1100w-CID5-IDWexK6.html", "Link")</f>
         <v/>
       </c>
       <c r="F51">
@@ -6763,26 +6642,26 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wzmacniacz tuner OKANO 5000 RC Prestige wieża segmentowa * czytaj opis</t>
+          <t>Przedwzmacniacz gramofonowy+kabel 2*RCA (cinch)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>150 zł</t>
+          <t>72 zł</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Nysa</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E52">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-tuner-okano-5000-rc-prestige-wieza-segmentowa-czytaj-opis-CID99-IDTAN8A.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/przedwzmacniacz-gramofonowy-kabel-2rca-cinch-CID99-IDS9EGx.html", "Link")</f>
         <v/>
       </c>
       <c r="F52">
@@ -6793,26 +6672,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nagrywarka JVC przegrywarka VHS na DVD kopiarka zgraj kasety * HDMI</t>
+          <t>Sprzedam subwoofer plus wzmacniacz</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1 280 zł</t>
+          <t>380 zł</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Nawojów Śląski</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E53">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/nagrywarka-jvc-przegrywarka-vhs-na-dvd-kopiarka-zgraj-kasety-hdmi-CID99-IDTZXjH.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-subwoofer-plus-wzmacniacz-CID5-IDWexj5.html", "Link")</f>
         <v/>
       </c>
       <c r="F53">
@@ -6831,7 +6710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6874,176 +6753,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ibanez TS-9 Tubescreamer</t>
+          <t>Ibanez TSA5 wzmacniacz lampowy 5W</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>470 zł</t>
+          <t>1 075 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Warszawa, Wawer</t>
+          <t>Nieporęt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9-tubescreamer-CID751-IDUTTrb.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-tsa5-wzmacniacz-lampowy-5w-CID751-IDUmzad.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/f38cbdwy78ok-PL/image;r=90;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/zo27tda27px51-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tube screamer Mad Driver Jak  Ibanez TS9</t>
+          <t>valve reamer lp 808 lovepedal overdrive distortion fuzz zamiana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>350 zł</t>
+          <t>600 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Warszawa, Rembertów</t>
+          <t>Płock</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/tube-screamer-mad-driver-jak-ibanez-ts9-CID751-IDSQqZ2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/valve-reamer-lp-808-lovepedal-overdrive-distortion-fuzz-zamiana-CID751-IDTa9w4.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/rz2a0o1na9512-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/shgneyasupxo3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ibanez overdrive distortion Japan</t>
+          <t>Ibanez TS mini ( tube screamer ) overdrive</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>690 zł</t>
+          <t>280 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Poznań, Górczyn</t>
+          <t>Drawsko</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-overdrive-distortion-japan-CID751-IDOkHuh.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-mini-tube-screamer-overdrive-CID751-IDSCApv.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/sahpu7yh0kip1-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/tdimaa8sir6i-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wzmacniacz Gitarowy Line 6 Spider IV 75-Celestion-efekty- wysyłka Free</t>
+          <t>Ibanez TS-9 Tubescreamer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>990 zł</t>
+          <t>470 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bydgoszcz</t>
+          <t>Warszawa, Wawer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-gitarowy-line-6-spider-iv-75-celestion-efekty-wysylka-free-CID751-IDTKqcj.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9-tubescreamer-CID751-IDUTTrb.html", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/pj0q913t5f1t2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/f38cbdwy78ok-PL/image;r=90;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedał overdrive do gitary elektrycznej z wbudowaną bramką szumów</t>
+          <t>Tube screamer Mad Driver Jak  Ibanez TS9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>400 zł</t>
+          <t>350 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Skawina</t>
+          <t>Warszawa, Rembertów</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedal-overdrive-do-gitary-elektrycznej-z-wbudowana-bramka-szumow-CID751-IDTLQoC.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/tube-screamer-mad-driver-jak-ibanez-ts9-CID751-IDSQqZ2.html", "Link")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/3p8lu8l8ef5u3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/rz2a0o1na9512-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ibanez ts9  tube screamer baked mod keeley orginalny 2006</t>
+          <t>Ibanez overdrive distortion Japan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2 000 zł</t>
+          <t>690 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dębogórze Wybudowanie</t>
+          <t>Poznań, Górczyn</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts9-tube-screamer-baked-mod-keeley-orginalny-2006-CID751-IDUt0Bs.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-overdrive-distortion-japan-CID751-IDOkHuh.html", "Link")</f>
         <v/>
       </c>
       <c r="F7">
@@ -7054,26 +6933,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Case iPhone 5S, SE Tubescreamer Ibanez</t>
+          <t>Wzmacniacz Gitarowy Line 6 Spider IV 75-Celestion-efekty- wysyłka Free</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>40 zł</t>
+          <t>990 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dzierżoniów</t>
+          <t>Bydgoszcz</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/case-iphone-5s-se-tubescreamer-ibanez-CID99-IDNyUCa.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-gitarowy-line-6-spider-iv-75-celestion-efekty-wysylka-free-CID751-IDTKqcj.html", "Link")</f>
         <v/>
       </c>
       <c r="F8">
@@ -7084,12 +6963,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedał overdrive do gitary elektrycznej Amp Warmer Overdrive</t>
+          <t>Pedał overdrive do gitary elektrycznej z wbudowaną bramką szumów</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>199 zł</t>
+          <t>400 zł</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7099,11 +6978,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedal-overdrive-do-gitary-elektrycznej-amp-warmer-overdrive-CID751-IDUD0J4.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedal-overdrive-do-gitary-elektrycznej-z-wbudowana-bramka-szumow-CID751-IDTLQoC.html", "Link")</f>
         <v/>
       </c>
       <c r="F9">
@@ -7114,26 +6993,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ibanez Tube Screamer TS9</t>
+          <t>Ibanez ts9  tube screamer baked mod keeley orginalny 2006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>489 zł</t>
+          <t>2 000 zł</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tczew</t>
+          <t>Dębogórze Wybudowanie</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-tube-screamer-ts9-CID751-IDW29se.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts9-tube-screamer-baked-mod-keeley-orginalny-2006-CID751-IDUt0Bs.html", "Link")</f>
         <v/>
       </c>
       <c r="F10">
@@ -7144,26 +7023,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ibanez TS808 Keeley Mod+ Tube Screamer</t>
+          <t>Case iPhone 5S, SE Tubescreamer Ibanez</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1 200 zł</t>
+          <t>40 zł</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gdańsk, Wrzeszcz</t>
+          <t>Dzierżoniów</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts808-keeley-mod-tube-screamer-CID751-IDT7zeK.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/case-iphone-5s-se-tubescreamer-ibanez-CID99-IDNyUCa.html", "Link")</f>
         <v/>
       </c>
       <c r="F11">
@@ -7174,26 +7053,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ibanez TSA5 wzmacniacz lampowy 5W</t>
+          <t>Pedał overdrive do gitary elektrycznej Amp Warmer Overdrive</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1 080 zł</t>
+          <t>199 zł</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nieporęt</t>
+          <t>Skawina</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-tsa5-wzmacniacz-lampowy-5w-CID751-IDUmzad.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedal-overdrive-do-gitary-elektrycznej-amp-warmer-overdrive-CID751-IDUD0J4.html", "Link")</f>
         <v/>
       </c>
       <c r="F12">
@@ -7204,26 +7083,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>valve reamer lp 808 lovepedal overdrive distortion fuzz zamiana</t>
+          <t>Ibanez Tube Screamer TS9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>600 zł</t>
+          <t>489 zł</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Płock</t>
+          <t>Tczew</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>17 czerwca 2023</t>
         </is>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/valve-reamer-lp-808-lovepedal-overdrive-distortion-fuzz-zamiana-CID751-IDTa9w4.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-tube-screamer-ts9-CID751-IDW29se.html", "Link")</f>
         <v/>
       </c>
       <c r="F13">
@@ -7234,26 +7113,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ibanez TS mini ( tube screamer ) overdrive</t>
+          <t>Ibanez TS808 Keeley Mod+ Tube Screamer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>280 zł</t>
+          <t>1 200 zł</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Drawsko</t>
+          <t>Gdańsk, Wrzeszcz</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11 czerwca 2023</t>
+          <t>16 czerwca 2023</t>
         </is>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-mini-tube-screamer-overdrive-CID751-IDSCApv.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts808-keeley-mod-tube-screamer-CID751-IDT7zeK.html", "Link")</f>
         <v/>
       </c>
       <c r="F14">
@@ -7384,206 +7263,206 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kostka gitarowa DIY,overdrive klon TS9</t>
+          <t>Marshall Haze 40c + 4przyciskowy footswitch (nowe lampy, combo ,plexi)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>75 zł</t>
+          <t>1 300 zł</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ruda Śląska</t>
+          <t>Bieganowo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30 maja 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/kostka-gitarowa-diy-overdrive-klon-ts9-CID751-IDLa5fz.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-haze-40c-4przyciskowy-footswitch-nowe-lampy-combo-plexi-CID751-IDTzSmV.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F19">
-        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/70szmvgf1mdr1-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Source Audio Collider Delay + Reverb</t>
+          <t>Fender American Vintage Hot Rod 52 Telecaster 2008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1 600 zł</t>
+          <t>8 200 zł</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Świecie</t>
+          <t>Katowice, Podlesie</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/source-audio-collider-delay-reverb-CID751-IDWbt5T.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-vintage-hot-rod-52-telecaster-2008-CID751-IDTVKv6.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F20">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/tfdqxcaeb27k3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/bhc2tuogikra2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Marshall Haze 40c + 4przyciskowy footswitch (nowe lampy, combo ,plexi)</t>
+          <t>Tubescreamer ibanez ts9 efekt gitarowy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 300 zł</t>
+          <t>420 zł</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bieganowo</t>
+          <t>Warszawa, Śródmieście</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 27 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-haze-40c-4przyciskowy-footswitch-nowe-lampy-combo-plexi-CID751-IDTzSmV.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/tubescreamer-ibanez-ts9-efekt-gitarowy-CID751-IDWdmF5.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F21">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/70szmvgf1mdr1-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/0pl1afnjgvvi2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ibanez TS 9DX</t>
+          <t>Fender Hot Rod Deville ML 212 (Michael Landau)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>550 zł</t>
+          <t>4 999 zł</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Łódź, Śródmieście</t>
+          <t>Wrocław, Fabryczna</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9dx-CID751-IDIvX6h.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deville-ml-212-michael-landau-CID751-IDLTzIN.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F22">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/0f7rwpvwjafo3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/a3ey2ivtavgi1-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ibanez TS-9B Bass Tubescreamer</t>
+          <t>Marshall SV20C mini plexi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>420 zł</t>
+          <t>3 699 zł</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Toruń</t>
+          <t>Warszawa, Mokotów</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9b-bass-tubescreamer-CID751-IDUSx5V.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-sv20c-mini-plexi-CID751-IDUXIc4.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F23">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/w9qern4lpyh13-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/p0yygzvxzzgk2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deluxe lampowe combo gitarowe</t>
+          <t>Source Audio Collider Delay + Reverb</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2 380 zł</t>
+          <t>1 500 zł</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zabrze</t>
+          <t>Świecie</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-lampowe-combo-gitarowe-CID751-IDDDDaS.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/source-audio-collider-delay-reverb-CID751-IDWbt5T.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F24">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/y5rrov1zjkiu3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deluxe lampowe combo gitarowe</t>
+          <t>Ibanez TS 9DX</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2 380 zł</t>
+          <t>550 zł</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Zabrze</t>
+          <t>Łódź, Śródmieście</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-lampowe-combo-gitarowe-CID751-IDxuKcK.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9dx-CID751-IDIvX6h.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F25">
@@ -7594,26 +7473,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PLEXI CRUNCH nux overdrive/distortion jak Marshall JCM2000 w kostce</t>
+          <t>Ibanez TS-9B Bass Tubescreamer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>180 zł</t>
+          <t>420 zł</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rumia</t>
+          <t>Toruń</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/plexi-crunch-nux-overdrive-distortion-jak-marshall-jcm2000-w-kostce-CID751-IDTQesy.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9b-bass-tubescreamer-CID751-IDUSx5V.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F26">
@@ -7624,26 +7503,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ibanez TS-9 Tubescreamer</t>
+          <t>Fender Hot Rod Deluxe lampowe combo gitarowe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>470 zł</t>
+          <t>2 380 zł</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Warszawa, Wawer</t>
+          <t>Zabrze</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9-tubescreamer-CID751-IDUTTrb.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-lampowe-combo-gitarowe-CID751-IDDDDaS.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F27">
@@ -7654,26 +7533,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deville 212 ML</t>
+          <t>Fender Hot Rod Deluxe lampowe combo gitarowe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3 500 zł</t>
+          <t>2 380 zł</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Olsztyn</t>
+          <t>Zabrze</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deville-212-ml-CID751-IDO649j.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-lampowe-combo-gitarowe-CID751-IDxuKcK.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F28">
@@ -7684,17 +7563,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Efekt gitarowy Ibanez TS7/TS9 (klon)</t>
+          <t>PLEXI CRUNCH nux overdrive/distortion jak Marshall JCM2000 w kostce</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>220 zł</t>
+          <t>180 zł</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Drezdenko</t>
+          <t>Rumia</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7703,7 +7582,7 @@
         </is>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-ibanez-ts7-ts9-klon-CID751-IDU30pQ.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/plexi-crunch-nux-overdrive-distortion-jak-marshall-jcm2000-w-kostce-CID751-IDTQesy.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F29">
@@ -7714,26 +7593,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fender American Vintage Reissue Hot Rod '62 Stratocaster 2007!</t>
+          <t>Ibanez TS-9 Tubescreamer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8 500 zł</t>
+          <t>470 zł</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Poznań, Grunwald</t>
+          <t>Warszawa, Wawer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-american-vintage-reissue-hot-rod-62-stratocaster-2007-CID751-IDW8POk.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts-9-tubescreamer-CID751-IDUTTrb.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F30">
@@ -7744,26 +7623,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fender hot rod deluxe 40w combo gitarowe</t>
+          <t>Fender Hot Rod Deville 212 ML</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2 200 zł</t>
+          <t>3 500 zł</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Klimontów</t>
+          <t>Olsztyn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E31">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-40w-combo-gitarowe-CID751-IDUuans.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deville-212-ml-CID751-IDO649j.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F31">
@@ -7774,26 +7653,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Overdrive tubescreamer Ibanez TS808</t>
+          <t>Efekt gitarowy Ibanez TS7/TS9 (klon)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>650 zł</t>
+          <t>220 zł</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Grudziądz</t>
+          <t>Drezdenko</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E32">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/overdrive-tubescreamer-ibanez-ts808-CID751-IDW8j0C.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-ibanez-ts7-ts9-klon-CID751-IDU30pQ.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F32">
@@ -7804,17 +7683,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Overdrive tubescreamer Ibanez TS9</t>
+          <t>Fender hot rod deluxe 40w combo gitarowe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>450 zł</t>
+          <t>2 200 zł</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Grudziądz</t>
+          <t>Klimontów</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -7823,7 +7702,7 @@
         </is>
       </c>
       <c r="E33">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/overdrive-tubescreamer-ibanez-ts9-CID751-IDW8iCh.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-40w-combo-gitarowe-CID751-IDUuans.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F33">
@@ -7834,26 +7713,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Wzmaczniacz Fender HOT ROD DEVILLE 212</t>
+          <t>Overdrive tubescreamer Ibanez TS808</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2 500 zł</t>
+          <t>600 zł</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nowy Dwór Mazowiecki</t>
+          <t>Grudziądz</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E34">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmaczniacz-fender-hot-rod-deville-212-CID99-IDW7XTt.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/overdrive-tubescreamer-ibanez-ts808-CID751-IDW8j0C.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F34">
@@ -7864,26 +7743,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deluxe III</t>
+          <t>Overdrive tubescreamer Ibanez TS9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2 150 zł</t>
+          <t>450 zł</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gliwice, Żerniki</t>
+          <t>Grudziądz</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E35">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iii-CID751-IDUHDu9.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/overdrive-tubescreamer-ibanez-ts9-CID751-IDW8iCh.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F35">
@@ -7894,26 +7773,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deluxe III combo gitarowe 40W</t>
+          <t>Wzmaczniacz Fender HOT ROD DEVILLE 212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2 690 zł</t>
+          <t>2 500 zł</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Zabrze</t>
+          <t>Nowy Dwór Mazowiecki</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Odświeżono dnia 22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E36">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iii-combo-gitarowe-40w-CID751-IDCW9JD.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmaczniacz-fender-hot-rod-deville-212-CID99-IDW7XTt.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F36">
@@ -7924,26 +7803,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S/Z wzmacniacz Fender Hot Rod Deluxe 1998 USA combo gitarowy lampowy</t>
+          <t>Fender Hot Rod Deluxe III</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3 400 zł</t>
+          <t>2 100 zł</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Warszawa, Mokotów</t>
+          <t>Gliwice, Żerniki</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E37">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/s-z-wzmacniacz-fender-hot-rod-deluxe-1998-usa-combo-gitarowy-lampowy-CID751-IDTKRka.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iii-CID751-IDUHDu9.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F37">
@@ -7954,26 +7833,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deluxe III</t>
+          <t>Fender Hot Rod Deluxe III combo gitarowe 40W</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2 500 zł</t>
+          <t>2 690 zł</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Poznań, Stare Miasto</t>
+          <t>Zabrze</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>Odświeżono dnia 22 czerwca 2023</t>
         </is>
       </c>
       <c r="E38">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iii-CID751-IDUU6BM.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iii-combo-gitarowe-40w-CID751-IDCW9JD.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F38">
@@ -7984,26 +7863,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fender Hot Rod De Ville 410 wzmacniacz/combo gitarowe 60W</t>
+          <t>S/Z wzmacniacz Fender Hot Rod Deluxe 1998 USA combo gitarowy lampowy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3 500 zł</t>
+          <t>3 400 zł</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sędziszów</t>
+          <t>Warszawa, Mokotów</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E39">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-de-ville-410-wzmacniacz-combo-gitarowe-60w-CID751-IDRlHlV.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/s-z-wzmacniacz-fender-hot-rod-deluxe-1998-usa-combo-gitarowy-lampowy-CID751-IDTKRka.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F39">
@@ -8014,26 +7893,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedał Octaver + fuzz Pigtronix Octava Micro kupiony 21.3.2023 w Kytary</t>
+          <t>Fender Hot Rod Deluxe III</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>480 zł</t>
+          <t>2 500 zł</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kraków, Stare Miasto</t>
+          <t>Poznań, Stare Miasto</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E40">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedal-octaver-fuzz-pigtronix-octava-micro-kupiony-21-3-2023-w-kytary-CID751-IDUEkog.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iii-CID751-IDUU6BM.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F40">
@@ -8044,26 +7923,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fender Jaguar Bass CIJ / MIJ 2006/2008 Hot Rod Red</t>
+          <t>Fender Hot Rod De Ville 410 wzmacniacz/combo gitarowe 60W</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6 500 zł</t>
+          <t>3 500 zł</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Warszawa, Praga-Północ</t>
+          <t>Sędziszów</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20 czerwca 2023</t>
+          <t>21 czerwca 2023</t>
         </is>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-jaguar-bass-cij-mij-2006-2008-hot-rod-red-CID751-IDTxLIn.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-de-ville-410-wzmacniacz-combo-gitarowe-60w-CID751-IDRlHlV.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F41">
@@ -8074,17 +7953,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Efekt tremolo phaser Pigtronix Moon Pool</t>
+          <t>Pedał Octaver + fuzz Pigtronix Octava Micro kupiony 21.3.2023 w Kytary</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>600 zł</t>
+          <t>480 zł</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Warszawa, Wola</t>
+          <t>Kraków, Stare Miasto</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8093,7 +7972,7 @@
         </is>
       </c>
       <c r="E42">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-tremolo-phaser-pigtronix-moon-pool-CID751-IDT6t5e.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedal-octaver-fuzz-pigtronix-octava-micro-kupiony-21-3-2023-w-kytary-CID751-IDUEkog.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F42">
@@ -8104,17 +7983,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ibanez ts9 / ns2 Boss / Palmer / Omni mk2</t>
+          <t>Fender Jaguar Bass CIJ / MIJ 2006/2008 Hot Rod Red</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Zamienię</t>
+          <t>6 500 zł</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Malbork</t>
+          <t>Warszawa, Praga-Północ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8123,7 +8002,7 @@
         </is>
       </c>
       <c r="E43">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts9-ns2-boss-palmer-omni-mk2-CID751-IDW52Eg.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-jaguar-bass-cij-mij-2006-2008-hot-rod-red-CID751-IDTxLIn.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F43">
@@ -8134,26 +8013,26 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pigtronix Class A Boost   Boss</t>
+          <t>Efekt tremolo phaser Pigtronix Moon Pool</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>250 zł</t>
+          <t>530 zł</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tomaszów Mazowiecki</t>
+          <t>Warszawa, Wola</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>20 czerwca 2023</t>
         </is>
       </c>
       <c r="E44">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pigtronix-class-a-boost-boss-CID751-IDSmfU9.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-tremolo-phaser-pigtronix-moon-pool-CID751-IDT6t5e.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F44">
@@ -8164,26 +8043,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Marshall Sv20 head Plexi</t>
+          <t>Ibanez ts9 / ns2 Boss / Palmer / Omni mk2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3 500 zł</t>
+          <t>Zamienię</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ciasne</t>
+          <t>Malbork</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>20 czerwca 2023</t>
         </is>
       </c>
       <c r="E45">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-sv20-head-plexi-CID751-IDW3Rky.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts9-ns2-boss-palmer-omni-mk2-CID751-IDW52Eg.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F45">
@@ -8194,7 +8073,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pigtronix Class A Boost</t>
+          <t>Pigtronix Class A Boost   Boss</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8204,16 +8083,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Barlinek</t>
+          <t>Tomaszów Mazowiecki</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E46">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pigtronix-class-a-boost-CID751-IDSVYLa.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pigtronix-class-a-boost-boss-CID751-IDSmfU9.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F46">
@@ -8224,26 +8103,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deville 212 combo gitarowe 60W</t>
+          <t>Marshall Sv20 head Plexi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2 000 zł</t>
+          <t>3 500 zł</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Siedlce</t>
+          <t>Ciasne</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>15 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E47">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deville-212-combo-gitarowe-60w-CID751-IDDQ0ds.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-sv20-head-plexi-CID751-IDW3Rky.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F47">
@@ -8254,26 +8133,26 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Source Audio - Neuro Hub</t>
+          <t>Pigtronix Class A Boost</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>400 zł</t>
+          <t>220 zł</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Krasnystaw</t>
+          <t>Barlinek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E48">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/source-audio-neuro-hub-CID751-IDTDTHV.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pigtronix-class-a-boost-CID751-IDSVYLa.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F48">
@@ -8284,26 +8163,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fender HotRod Deluxe</t>
+          <t>Fender Hot Rod Deville 212 combo gitarowe 60W</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2 400 zł</t>
+          <t>2 000 zł</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Jaskrów</t>
+          <t>Siedlce</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14 czerwca 2023</t>
+          <t>15 czerwca 2023</t>
         </is>
       </c>
       <c r="E49">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hotrod-deluxe-CID751-IDUzsrr.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deville-212-combo-gitarowe-60w-CID751-IDDQ0ds.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F49">
@@ -8314,17 +8193,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fender hot rod deluxe 112 40w lampowy wzmaczniacz gitarowy</t>
+          <t>Source Audio - Neuro Hub</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2 300 zł</t>
+          <t>400 zł</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Leżajsk</t>
+          <t>Krasnystaw</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8333,7 +8212,7 @@
         </is>
       </c>
       <c r="E50">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-112-40w-lampowy-wzmaczniacz-gitarowy-CID751-IDOUmga.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/source-audio-neuro-hub-CID751-IDTDTHV.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F50">
@@ -8344,26 +8223,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Source Audio - L.A. Lady - overdrive</t>
+          <t>Fender hot rod deluxe 112 40w lampowy wzmaczniacz gitarowy</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>700 zł</t>
+          <t>2 300 zł</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Krasnystaw</t>
+          <t>Leżajsk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13 czerwca 2023</t>
+          <t>14 czerwca 2023</t>
         </is>
       </c>
       <c r="E51">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/source-audio-l-a-lady-overdrive-CID751-IDTCWFv.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-112-40w-lampowy-wzmaczniacz-gitarowy-CID751-IDOUmga.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F51">
@@ -8374,17 +8253,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dangerous Music Source -  interface, przetwornik, kontroler odsłuchu</t>
+          <t>Source Audio - L.A. Lady - overdrive</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4 000 zł</t>
+          <t>700 zł</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Warszawa, Praga-Północ</t>
+          <t>Krasnystaw</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -8393,7 +8272,7 @@
         </is>
       </c>
       <c r="E52">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/dangerous-music-source-interface-przetwornik-kontroler-odsluchu-CID99-IDQ5qgY.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/source-audio-l-a-lady-overdrive-CID751-IDTCWFv.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F52">
@@ -8404,26 +8283,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Marshall SV20C mini plexi</t>
+          <t>Ibanez ts9 tubescreamer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3 800 zł</t>
+          <t>550 zł</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Warszawa, Mokotów</t>
+          <t>Radom</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12 czerwca 2023</t>
+          <t>09 czerwca 2023</t>
         </is>
       </c>
       <c r="E53">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-sv20c-mini-plexi-CID751-IDUXIc4.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts9-tubescreamer-CID751-IDQYPLz.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F53">
@@ -8434,26 +8313,26 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ibanez ts9 tubescreamer</t>
+          <t>Fender Hot Rod Deluxe IV</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>550 zł</t>
+          <t>3 500 zł</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Radom</t>
+          <t>Płońsk</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>09 czerwca 2023</t>
+          <t>08 czerwca 2023</t>
         </is>
       </c>
       <c r="E54">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ts9-tubescreamer-CID751-IDQYPLz.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iv-CID751-IDTxXqw.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F54">
@@ -8464,26 +8343,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fender Hot Rod Deluxe IV</t>
+          <t>wzmacnacz mg plexi 50      marshall replika</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3 500 zł</t>
+          <t>2 600 zł</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Płońsk</t>
+          <t>Orneta</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>08 czerwca 2023</t>
+          <t>07 czerwca 2023</t>
         </is>
       </c>
       <c r="E55">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-hot-rod-deluxe-iv-CID751-IDTxXqw.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacnacz-mg-plexi-50-marshall-replika-CID751-IDUTsNo.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F55">
@@ -8494,17 +8373,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>wzmacnacz mg plexi 50      marshall replika</t>
+          <t>Marshall Origin 50h - head lampowy, budżetowe Plexi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2 600 zł</t>
+          <t>2 000 zł</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Orneta</t>
+          <t>Warszawa, Bielany</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -8513,7 +8392,7 @@
         </is>
       </c>
       <c r="E56">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacnacz-mg-plexi-50-marshall-replika-CID751-IDUTsNo.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-origin-50h-head-lampowy-budzetowe-plexi-CID751-IDUuGdV.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F56">
@@ -8524,26 +8403,26 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Marshall Origin 50h - head lampowy, budżetowe Plexi</t>
+          <t>Pigtronix Mothership, syntezator gitarowy, zasilanie 48v</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2 000 zł</t>
+          <t>1 400 zł</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Warszawa, Bielany</t>
+          <t>Gdańsk, Śródmieście</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>07 czerwca 2023</t>
+          <t>02 czerwca 2023</t>
         </is>
       </c>
       <c r="E57">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/marshall-origin-50h-head-lampowy-budzetowe-plexi-CID751-IDUuGdV.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pigtronix-mothership-syntezator-gitarowy-zasilanie-48v-CID751-IDPvhN5.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F57">
@@ -8554,17 +8433,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pigtronix Mothership, syntezator gitarowy, zasilanie 48v</t>
+          <t>Fender Footswitch - pedał nożny do wzmacniaczy Fender serii Hot Rod</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1 400 zł</t>
+          <t>299 zł</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gdańsk, Śródmieście</t>
+          <t>Chorzów</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -8573,40 +8452,10 @@
         </is>
       </c>
       <c r="E58">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/pigtronix-mothership-syntezator-gitarowy-zasilanie-48v-CID751-IDPvhN5.html?reason=extended_search_extended_s2v", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-footswitch-pedal-nozny-do-wzmacniaczy-fender-serii-hot-rod-CID751-IDSv572.html?reason=extended_search_extended_s2v", "Link")</f>
         <v/>
       </c>
       <c r="F58">
-        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Fender Footswitch - pedał nożny do wzmacniaczy Fender serii Hot Rod</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>299 zł</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Chorzów</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>02 czerwca 2023</t>
-        </is>
-      </c>
-      <c r="E59">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/fender-footswitch-pedal-nozny-do-wzmacniaczy-fender-serii-hot-rod-CID751-IDSv572.html?reason=extended_search_extended_s2v", "Link")</f>
-        <v/>
-      </c>
-      <c r="F59">
         <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
         <v/>
       </c>
@@ -8622,7 +8471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8665,176 +8514,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Efekt gitarowy distortion Tc electronic Grand Magus jak Proco Rat</t>
+          <t>ProCo FatRat efekt gitarowy distortion</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>150 zł</t>
+          <t>1 199 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Poznań, Junikowo</t>
+          <t>Subkowy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-distortion-tc-electronic-grand-magus-jak-proco-rat-CID751-IDWbuUa.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/proco-fatrat-efekt-gitarowy-distortion-CID751-IDUFTfa.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/chuqgg0q4xdb2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/zsfec04ue9su2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Digitech Hot Rod Distortion (Rat, Boss DS-1, Fuzz Face) efekt gitarowy</t>
+          <t>ProCo Lil' Rat efekt distortion</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>230 zł</t>
+          <t>495 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jasło</t>
+          <t>Subkowy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/digitech-hot-rod-distortion-rat-boss-ds-1-fuzz-face-efekt-gitarowy-CID751-IDUjlCx.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/proco-lil-rat-efekt-distortion-CID751-IDUFT09.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/miiv0ubhooq41-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/gq9j833do9bl3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eleven Rack od AVID Procesor Efektów Gitara Bas Wokal</t>
+          <t>Zestaw DIY - efekt do gitary elektrycznej Rat Distortion</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 800 zł</t>
+          <t>69 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kraków, Bronowice</t>
+          <t>Skawina</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/eleven-rack-od-avid-procesor-efektow-gitara-bas-wokal-CID99-IDS0IbU.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/zestaw-diy-efekt-do-gitary-elektrycznej-rat-distortion-CID751-IDWcS9K.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/dh95mllzq5mc2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/fpdvux3ckwzn3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ProCo FatRat efekt gitarowy distortion</t>
+          <t>Klon Proco Rat distortion efekt gitarowy kopia klon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 199 zł</t>
+          <t>150 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Subkowy</t>
+          <t>Rumia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>28 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/proco-fatrat-efekt-gitarowy-distortion-CID751-IDUFTfa.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/klon-proco-rat-distortion-efekt-gitarowy-kopia-klon-CID751-IDRqHJ8.html", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/zsfec04ue9su2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/j4i4x9qdx1lz-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ProCo Lil' Rat efekt distortion</t>
+          <t>Efekt gitarowy distortion Tc electronic Grand Magus jak Proco Rat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>495 zł</t>
+          <t>130 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Subkowy</t>
+          <t>Poznań, Junikowo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/proco-lil-rat-efekt-distortion-CID751-IDUFT09.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-distortion-tc-electronic-grand-magus-jak-proco-rat-CID751-IDWbuUa.html", "Link")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/gq9j833do9bl3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/chuqgg0q4xdb2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mooer black secret - klon proco RAT</t>
+          <t>Digitech Hot Rod Distortion (Rat, Boss DS-1, Fuzz Face) efekt gitarowy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>150 zł</t>
+          <t>230 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Warszawa, Bemowo</t>
+          <t>Jasło</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/mooer-black-secret-klon-proco-rat-CID751-IDUTaAD.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/digitech-hot-rod-distortion-rat-boss-ds-1-fuzz-face-efekt-gitarowy-CID751-IDUjlCx.html", "Link")</f>
         <v/>
       </c>
       <c r="F7">
@@ -8845,26 +8694,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Klon Proco Rat distortion efekt gitarowy kopia klon</t>
+          <t>Eleven Rack od AVID Procesor Efektów Gitara Bas Wokal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>150 zł</t>
+          <t>1 800 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rumia</t>
+          <t>Kraków, Bronowice</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/klon-proco-rat-distortion-efekt-gitarowy-kopia-klon-CID751-IDRqHJ8.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/eleven-rack-od-avid-procesor-efektow-gitara-bas-wokal-CID99-IDS0IbU.html", "Link")</f>
         <v/>
       </c>
       <c r="F8">
@@ -8875,29 +8724,59 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Mooer black secret - klon proco RAT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>140 zł</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Warszawa, Bemowo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21 czerwca 2023</t>
+        </is>
+      </c>
+      <c r="E9">
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/mooer-black-secret-klon-proco-rat-CID751-IDUTaAD.html", "Link")</f>
+        <v/>
+      </c>
+      <c r="F9">
+        <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Wzmacniacz gitarowy Line 6 Spider IV 75W</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>799 zł</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Ruda Śląska</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>08 czerwca 2023</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f>HYPERLINK("https://www.olx.pl/d/oferta/wzmacniacz-gitarowy-line-6-spider-iv-75w-CID99-IDU1UMF.html", "Link")</f>
         <v/>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f>HYPERLINK("/app/static/media/no_thumbnail.15f456ec5.svg", "Photo")</f>
         <v/>
       </c>
@@ -9187,176 +9066,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boss DS-1 Black Label !! Taiwan</t>
+          <t>Pedalboard plus efekty gitarowe plus wzmacniacz Marshall</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>450 zł</t>
+          <t>3 500 zł</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bielsko-Biała</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-black-label-taiwan-CID751-IDUKLJT.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedalboard-plus-efekty-gitarowe-plus-wzmacniacz-marshall-CID751-IDWdVQM.html", "Link")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/cr6xg8gwi4pu3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/4b089iy95f4d3-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cadillac CTS Cadillac CTS 311KM</t>
+          <t>Ibanez mini chorus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>35 000 zł</t>
+          <t>250 zł</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mosina</t>
+          <t>Warszawa, Śródmieście</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/osobowe/oferta/cadillac-cts-cadillac-cts-311km-ID6Fr7vH.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-mini-chorus-CID751-IDWerfp.html", "Link")</f>
         <v/>
       </c>
       <c r="F3">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/chiq5ds7zima2-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/yy8ulfx8w9vu2-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOSS GT-100 Multieffect processor looper multiefekt delay</t>
+          <t>Pedalboard z 12 efektami i 2 zasilaczami</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>980 zł</t>
+          <t>4 450 zł</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Warszawa, Bielany</t>
+          <t>Sosnowiec</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>30 czerwiec 2023</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-multieffect-processor-looper-multiefekt-delay-CID751-IDWavoe.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/pedalboard-z-12-efektami-i-2-zasilaczami-CID751-IDWehLH.html", "Link")</f>
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/8mc7qb09nvfe3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/evqry94t9l1x1-PL/image;r=180;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boss DS-1 Super Distortion efekt gitarowy</t>
+          <t>Boss DS-1 distortion efekt gitarowy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>270 zł</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Zabrze</t>
+          <t>Poznań, Jeżyce</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-super-distortion-efekt-gitarowy-CID751-IDPqDN8.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-distortion-efekt-gitarowy-CID751-IDWdLCI.html", "Link")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/s6dhqdgwqnje3-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/ns05dfx9np613-PL/image;r=90;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boss distortion DS-1</t>
+          <t>FILTR POWIETRZA MITSUBISHI, A535 PUR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>280 zł</t>
+          <t>97,52 zł</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rybnik</t>
+          <t>Mikołów, Centrum</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-distortion-ds-1-CID751-IDUW26H.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/filtr-powietrza-mitsubishi-a535-pur-ID6FD0Tm.html", "Link")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/w5ghiv93qgk93-PL/image;s=200x0;q=50", "Photo")</f>
+        <f>HYPERLINK("https://ireland.apollo.olxcdn.com:443/v1/files/ba55xkctvuy02-PL/image;s=200x0;q=50", "Photo")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Efekt gitarowy Boss OS2</t>
+          <t>HUGO Boss Arti/hesten222x - Garnitur model Arti Hesten niebieski 46 S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>799 zł</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Zielona Góra</t>
+          <t>Warszawa, Mokotów</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-os2-CID751-IDUgFLF.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/hugo-boss-arti-hesten222x-garnitur-model-arti-hesten-niebieski-46-s-CID87-IDSZrBM.html", "Link")</f>
         <v/>
       </c>
       <c r="F7">
@@ -9367,26 +9246,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Digitech Hot Rod Distortion (Rat, Boss DS-1, Fuzz Face) efekt gitarowy</t>
+          <t>Przestery / efekty gitarowe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>230 zł</t>
+          <t>440 zł</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jasło</t>
+          <t>Lubin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26 czerwca 2023</t>
+          <t>29 czerwca 2023</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/digitech-hot-rod-distortion-rat-boss-ds-1-fuzz-face-efekt-gitarowy-CID751-IDUjlCx.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/przestery-efekty-gitarowe-CID751-IDMnPp9.html", "Link")</f>
         <v/>
       </c>
       <c r="F8">
@@ -9397,26 +9276,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Boss DS-1 Distortion</t>
+          <t>Boss DS-1 Black Label !! Taiwan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>450 zł</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Krapkowice</t>
+          <t>Bielsko-Biała</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-distortion-CID751-IDTZpll.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-black-label-taiwan-CID751-IDUKLJT.html", "Link")</f>
         <v/>
       </c>
       <c r="F9">
@@ -9427,26 +9306,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Boss DS-1 DS 1 Distortion KEELEY MOD oryginał</t>
+          <t>Cadillac CTS Cadillac CTS 311KM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>700 zł</t>
+          <t>35 000 zł</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kraków, Bronowice</t>
+          <t>Mosina</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>27 czerwca 2023</t>
         </is>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-ds-1-distortion-keeley-mod-oryginal-CID751-IDTXX38.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/osobowe/oferta/cadillac-cts-cadillac-cts-311km-ID6Fr7vH.html", "Link")</f>
         <v/>
       </c>
       <c r="F10">
@@ -9457,26 +9336,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lampa LED Halogen 360W Reflektor CANTER ISUZU KIA</t>
+          <t>BOSS GT-100 Multieffect processor looper multiefekt delay</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>149 zł</t>
+          <t>899 zł</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rawa Mazowiecka</t>
+          <t>Warszawa, Bielany</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/lampa-led-halogen-360w-reflektor-canter-isuzu-kia-ID6F6qoc.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-multieffect-processor-looper-multiefekt-delay-CID751-IDWavoe.html", "Link")</f>
         <v/>
       </c>
       <c r="F11">
@@ -9487,26 +9366,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sprzedam Multiefekt gitarowy BOSS-GT6 + Torba</t>
+          <t>Boss DS-1 Super Distortion efekt gitarowy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>590 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Łódź, Polesie</t>
+          <t>Zabrze</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-multiefekt-gitarowy-boss-gt6-torba-CID751-IDU1uZX.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-super-distortion-efekt-gitarowy-CID751-IDPqDN8.html", "Link")</f>
         <v/>
       </c>
       <c r="F12">
@@ -9517,26 +9396,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ns eccentric 2019 (dh,ht,enduro)</t>
+          <t>Efekt gitarowy Boss OS2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2 300 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dębica</t>
+          <t>Zielona Góra</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-eccentric-2019-dh-ht-enduro-CID767-IDUs1Xl.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-os2-CID751-IDUgFLF.html", "Link")</f>
         <v/>
       </c>
       <c r="F13">
@@ -9547,26 +9426,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Boss DS-1 efekt typu Distortion</t>
+          <t>Digitech Hot Rod Distortion (Rat, Boss DS-1, Fuzz Face) efekt gitarowy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>250 zł</t>
+          <t>230 zł</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kraków, Łagiewniki-Borek Fałęcki</t>
+          <t>Jasło</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>26 czerwca 2023</t>
         </is>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-efekt-typu-distortion-CID751-IDW8vbP.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/digitech-hot-rod-distortion-rat-boss-ds-1-fuzz-face-efekt-gitarowy-CID751-IDUjlCx.html", "Link")</f>
         <v/>
       </c>
       <c r="F14">
@@ -9577,26 +9456,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ibanez ds7 distortion</t>
+          <t>Boss DS-1 Distortion</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>180 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Warszawa, Mokotów</t>
+          <t>Krapkowice</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ds7-distortion-CID751-IDW8eUa.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-distortion-CID751-IDTZpll.html", "Link")</f>
         <v/>
       </c>
       <c r="F15">
@@ -9607,26 +9486,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NS Bikes Eccentric Lite 1 Alu 29 Rozmiar S Trail</t>
+          <t>Boss DS-1 DS 1 Distortion KEELEY MOD oryginał</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3 899 zł</t>
+          <t>700 zł</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Warszawa, Białołęka</t>
+          <t>Kraków, Bronowice</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-bikes-eccentric-lite-1-alu-29-rozmiar-s-trail-CID767-IDOdXEL.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-ds-1-distortion-keeley-mod-oryginal-CID751-IDTXX38.html", "Link")</f>
         <v/>
       </c>
       <c r="F16">
@@ -9637,26 +9516,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Multiefekt Boss ME80</t>
+          <t>Lampa LED Halogen 360W Reflektor CANTER ISUZU KIA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>700 zł</t>
+          <t>149 zł</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Warszawa, Ursynów</t>
+          <t>Rawa Mazowiecka</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me80-CID751-IDW7RL2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/lampa-led-halogen-360w-reflektor-canter-isuzu-kia-ID6F6qoc.html", "Link")</f>
         <v/>
       </c>
       <c r="F17">
@@ -9667,26 +9546,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FILTR OLEJU HENGST H210WN DUCATO JUMPER BOXER</t>
+          <t>Sprzedam Multiefekt gitarowy BOSS-GT6 + Torba</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30 zł</t>
+          <t>590 zł</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kopanica</t>
+          <t>Łódź, Polesie</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>25 czerwca 2023</t>
         </is>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/filtr-oleju-hengst-h210wn-ducato-jumper-boxer-ID6FBEer.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/sprzedam-multiefekt-gitarowy-boss-gt6-torba-CID751-IDU1uZX.html", "Link")</f>
         <v/>
       </c>
       <c r="F18">
@@ -9697,26 +9576,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Efekt gitarowy Boss DS-1 + oryginalny zasilacz</t>
+          <t>Ns eccentric 2019 (dh,ht,enduro)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>320 zł</t>
+          <t>2 300 zł</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Marki</t>
+          <t>Dębica</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-ds-1-oryginalny-zasilacz-CID751-IDW6X0q.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-eccentric-2019-dh-ht-enduro-CID767-IDUs1Xl.html", "Link")</f>
         <v/>
       </c>
       <c r="F19">
@@ -9727,26 +9606,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Multiefekt Boss ME-70</t>
+          <t>Boss DS-1 efekt typu Distortion</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>730 zł</t>
+          <t>250 zł</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Reguły</t>
+          <t>Kraków, Łagiewniki-Borek Fałęcki</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me-70-CID751-IDUTghP.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-efekt-typu-distortion-CID751-IDW8vbP.html", "Link")</f>
         <v/>
       </c>
       <c r="F20">
@@ -9757,26 +9636,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Roland GP-8 Japan (Boss OD-2 DS-1 PH-1R DD-2 RCE-10 CS-1 AW-2)</t>
+          <t>Ibanez ds7 distortion tone lok</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>800 zł</t>
+          <t>260 zł</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gdańsk, Wrzeszcz</t>
+          <t>Warszawa, Mokotów</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>24 czerwca 2023</t>
         </is>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/roland-gp-8-japan-boss-od-2-ds-1-ph-1r-dd-2-rce-10-cs-1-aw-2-CID751-IDW6GQE.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ibanez-ds7-distortion-tone-lok-CID751-IDW8eUa.html", "Link")</f>
         <v/>
       </c>
       <c r="F21">
@@ -9787,26 +9666,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>efekt gitarowy BOSS -  DS-1 KELLY mod</t>
+          <t>NS Bikes Eccentric Lite 1 Alu 29 Rozmiar S Trail</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>340 zł</t>
+          <t>3 899 zł</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Będzin, Śródmieście</t>
+          <t>Warszawa, Białołęka</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-ds-1-kelly-mod-CID751-IDQedBA.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/ns-bikes-eccentric-lite-1-alu-29-rozmiar-s-trail-CID767-IDOdXEL.html", "Link")</f>
         <v/>
       </c>
       <c r="F22">
@@ -9817,26 +9696,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Boss DS-1 Waza Craft</t>
+          <t>Multiefekt Boss ME80</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>600 zł</t>
+          <t>700 zł</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gdańsk, Młyniska</t>
+          <t>Warszawa, Ursynów</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21 czerwca 2023</t>
+          <t>23 czerwca 2023</t>
         </is>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-waza-craft-CID751-IDW6ku0.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me80-CID751-IDW7RL2.html", "Link")</f>
         <v/>
       </c>
       <c r="F23">
@@ -9847,26 +9726,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Boss DS-1 distortion</t>
+          <t>FILTR OLEJU HENGST H210WN DUCATO JUMPER BOXER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>265 zł</t>
+          <t>30 zł</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Krosinko</t>
+          <t>Kopanica</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-distortion-CID751-IDW6fgm.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.plhttps://www.otomoto.pl/oferta/filtr-oleju-hengst-h210wn-ducato-jumper-boxer-ID6FBEer.html", "Link")</f>
         <v/>
       </c>
       <c r="F24">
@@ -9877,26 +9756,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Boss, Digitech, NUX efekty</t>
+          <t>Efekt gitarowy Boss DS-1 + oryginalny zasilacz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1 000 zł</t>
+          <t>320 zł</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kraków, Czyżyny</t>
+          <t>Marki</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-digitech-nux-efekty-CID751-IDW5y46.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-ds-1-oryginalny-zasilacz-CID751-IDW6X0q.html", "Link")</f>
         <v/>
       </c>
       <c r="F25">
@@ -9907,26 +9786,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BOSS DS-1 DISTORTION efekt gitarowy</t>
+          <t>Multiefekt Boss ME-70</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>340 zł</t>
+          <t>730 zł</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kutno</t>
+          <t>Reguły</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-distortion-efekt-gitarowy-CID751-IDPDEmR.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-boss-me-70-CID751-IDUTghP.html", "Link")</f>
         <v/>
       </c>
       <c r="F26">
@@ -9937,26 +9816,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boss distortion ds 1</t>
+          <t>efekt gitarowy BOSS -  DS-1 KELLY mod</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>275 zł</t>
+          <t>340 zł</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Koszalin</t>
+          <t>Będzin, Śródmieście</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>22 czerwca 2023</t>
         </is>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-distortion-ds-1-CID751-IDW3HBH.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-ds-1-kelly-mod-CID751-IDQedBA.html", "Link")</f>
         <v/>
       </c>
       <c r="F27">
@@ -9967,26 +9846,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dartmoor primal 2020</t>
+          <t>Boss DS-1 Waza Craft</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4 400 zł</t>
+          <t>600 zł</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Biłgoraj</t>
+          <t>Gdańsk, Młyniska</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>21 czerwca 2023</t>
         </is>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/dartmoor-primal-2020-CID767-IDPkQCT.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-waza-craft-CID751-IDW6ku0.html", "Link")</f>
         <v/>
       </c>
       <c r="F28">
@@ -9997,26 +9876,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BOSS GT-100 v2 multiefekt zasilacz super stan WYSYŁKA</t>
+          <t>Boss DS-1 distortion</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1 250 zł</t>
+          <t>260 zł</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ostrołęka</t>
+          <t>Krosinko</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>21 czerwca 2023</t>
         </is>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-v2-multiefekt-zasilacz-super-stan-wysylka-CID751-IDW3h1R.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-distortion-CID751-IDW6fgm.html", "Link")</f>
         <v/>
       </c>
       <c r="F29">
@@ -10027,26 +9906,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Digitech Hot Head distortion (klon Boss DS-1)</t>
+          <t>Boss, Digitech, NUX efekty</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>225 zł</t>
+          <t>1 000 zł</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Legionowo</t>
+          <t>Kraków, Czyżyny</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>20 czerwca 2023</t>
         </is>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/digitech-hot-head-distortion-klon-boss-ds-1-CID751-IDW2Xqn.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-digitech-nux-efekty-CID751-IDW5y46.html", "Link")</f>
         <v/>
       </c>
       <c r="F30">
@@ -10057,26 +9936,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Efekt gitarowy Boss Distortion DS-1X - jak nowy, gwarancja.</t>
+          <t>BOSS DS-1 DISTORTION efekt gitarowy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>550 zł</t>
+          <t>340 zł</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gliwice, Wojska Polskiego</t>
+          <t>Kutno</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18 czerwca 2023</t>
+          <t>19 czerwca 2023</t>
         </is>
       </c>
       <c r="E31">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-distortion-ds-1x-jak-nowy-gwarancja-CID751-IDW2TCy.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-distortion-efekt-gitarowy-CID751-IDPDEmR.html", "Link")</f>
         <v/>
       </c>
       <c r="F31">
@@ -10087,26 +9966,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Multiefekt gitarowy Boss ME70 + zasilacz</t>
+          <t>Boss distortion ds 1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>850 zł</t>
+          <t>275 zł</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jastrzębie-Zdrój</t>
+          <t>Koszalin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E32">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-gitarowy-boss-me70-zasilacz-CID751-IDTFz47.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-distortion-ds-1-CID751-IDW3HBH.html", "Link")</f>
         <v/>
       </c>
       <c r="F32">
@@ -10117,26 +9996,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kross Dust 2.0 S 2018 (Aion 150mm, SRAM NX)</t>
+          <t>dartmoor primal 2020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3 300 zł</t>
+          <t>4 400 zł</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Toruń</t>
+          <t>Biłgoraj</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E33">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/kross-dust-2-0-s-2018-aion-150mm-sram-nx-CID767-IDU6kIF.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/dartmoor-primal-2020-CID767-IDPkQCT.html", "Link")</f>
         <v/>
       </c>
       <c r="F33">
@@ -10147,26 +10026,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HUGO Boss Arti/hesten222x - Garnitur model Arti Hesten niebieski 46 S</t>
+          <t>BOSS GT-100 v2 multiefekt zasilacz super stan WYSYŁKA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>799 zł</t>
+          <t>1 250 zł</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Warszawa, Mokotów</t>
+          <t>Ostrołęka</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E34">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/hugo-boss-arti-hesten222x-garnitur-model-arti-hesten-niebieski-46-s-CID87-IDSZrBM.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-gt-100-v2-multiefekt-zasilacz-super-stan-wysylka-CID751-IDW3h1R.html", "Link")</f>
         <v/>
       </c>
       <c r="F34">
@@ -10177,26 +10056,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Boss DS-1 overdrive/distortion Keeley mod</t>
+          <t>Digitech Hot Head distortion (klon Boss DS-1)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>450 zł</t>
+          <t>225 zł</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Warszawa, Wola</t>
+          <t>Legionowo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E35">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-overdrive-distortion-keeley-mod-CID751-IDOh4mP.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/digitech-hot-head-distortion-klon-boss-ds-1-CID751-IDW2Xqn.html", "Link")</f>
         <v/>
       </c>
       <c r="F35">
@@ -10207,26 +10086,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>gra lego star wars the complete saga nintendo wii</t>
+          <t>Efekt gitarowy Boss Distortion DS-1X (do 30.06.) - jak nowy, gwarancja</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>24,99 zł</t>
+          <t>499 zł</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bytom</t>
+          <t>Gliwice, Wojska Polskiego</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10 czerwca 2023</t>
+          <t>18 czerwca 2023</t>
         </is>
       </c>
       <c r="E36">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/gra-lego-star-wars-the-complete-saga-nintendo-wii-CID99-IDUwHG1.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-distortion-ds-1x-do-30-06-jak-nowy-gwarancja-CID751-IDW2TCy.html", "Link")</f>
         <v/>
       </c>
       <c r="F36">
@@ -10237,26 +10116,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>turbo distortion ds-3 boss</t>
+          <t>Multiefekt gitarowy Boss ME70 + zasilacz</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>300 zł</t>
+          <t>850 zł</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Warszawa, Białołęka</t>
+          <t>Jastrzębie-Zdrój</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>09 czerwca 2023</t>
+          <t>16 czerwca 2023</t>
         </is>
       </c>
       <c r="E37">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/turbo-distortion-ds-3-boss-CID751-IDUw5MU.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/multiefekt-gitarowy-boss-me70-zasilacz-CID751-IDTFz47.html", "Link")</f>
         <v/>
       </c>
       <c r="F37">
@@ -10267,26 +10146,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Multi efekt gitarowy Boss GT-100</t>
+          <t>Kross Dust 2.0 S 2018 (Aion 150mm, SRAM NX)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1 700 zł</t>
+          <t>3 300 zł</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wrocław, Fabryczna</t>
+          <t>Toruń</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09 czerwca 2023</t>
+          <t>15 czerwca 2023</t>
         </is>
       </c>
       <c r="E38">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/multi-efekt-gitarowy-boss-gt-100-CID751-IDQx0iO.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/kross-dust-2-0-s-2018-aion-150mm-sram-nx-CID767-IDU6kIF.html", "Link")</f>
         <v/>
       </c>
       <c r="F38">
@@ -10297,26 +10176,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Efekt Gitarowy Boss DS-1</t>
+          <t>Boss DS-1 overdrive/distortion Keeley mod</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>240 zł</t>
+          <t>450 zł</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Warszawa, Bemowo</t>
+          <t>Warszawa, Wola</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>08 czerwca 2023</t>
+          <t>13 czerwca 2023</t>
         </is>
       </c>
       <c r="E39">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/efekt-gitarowy-boss-ds-1-CID751-IDUU7zi.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds-1-overdrive-distortion-keeley-mod-CID751-IDOh4mP.html", "Link")</f>
         <v/>
       </c>
       <c r="F39">
@@ -10327,26 +10206,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12 x worki do odkurzacza  Karcher VC2 2.863-236.0</t>
+          <t>gra lego star wars the complete saga nintendo wii</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>30 zł</t>
+          <t>24,99 zł</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Paczkowo</t>
+          <t>Bytom</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>07 czerwca 2023</t>
+          <t>10 czerwca 2023</t>
         </is>
       </c>
       <c r="E40">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/12-x-worki-do-odkurzacza-karcher-vc2-2-863-236-0-CID99-IDPd5v2.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/gra-lego-star-wars-the-complete-saga-nintendo-wii-CID99-IDUwHG1.html", "Link")</f>
         <v/>
       </c>
       <c r="F40">
@@ -10357,26 +10236,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Boss DS1, CS3, CEB3 CHORUS Zasilacz</t>
+          <t>turbo distortion ds-3 boss</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>349 zł</t>
+          <t>300 zł</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sielpia Wielka</t>
+          <t>Warszawa, Białołęka</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>06 czerwca 2023</t>
+          <t>09 czerwca 2023</t>
         </is>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://www.olx.pl/d/oferta/boss-ds1-cs3-ceb3-chorus-zasilacz-CID751-IDUrY2g.html", "Link")</f>
+        <f>HYPERLINK("https://www.olx.pl/d/oferta/turbo-distortion-ds-3-boss-CID751-IDUw5MU.html", "Link")</f>
         <v/>
       </c>
       <c r="F41">
